--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="5" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>28.7%</t>
+          <t>30.6%</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="L10" s="5" t="inlineStr">
         <is>
-          <t>68.8%</t>
+          <t>69.0%</t>
         </is>
       </c>
     </row>
@@ -1791,22 +1791,22 @@
         <v>27</v>
       </c>
       <c r="O21" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>19</v>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
-          <t>25.9%</t>
+          <t>29.6%</t>
         </is>
       </c>
       <c r="S21" s="5" t="inlineStr">
         <is>
-          <t>74.5%</t>
+          <t>72.3%</t>
         </is>
       </c>
     </row>
@@ -1869,22 +1869,22 @@
         <v>27</v>
       </c>
       <c r="O22" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
-          <t>25.9%</t>
+          <t>29.6%</t>
         </is>
       </c>
       <c r="S22" s="5" t="inlineStr">
         <is>
-          <t>70.0%</t>
+          <t>71.2%</t>
         </is>
       </c>
     </row>
@@ -1947,22 +1947,22 @@
         <v>27</v>
       </c>
       <c r="O23" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>19</v>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
-          <t>25.9%</t>
+          <t>29.6%</t>
         </is>
       </c>
       <c r="S23" s="5" t="inlineStr">
         <is>
-          <t>73.7%</t>
+          <t>76.0%</t>
         </is>
       </c>
     </row>
@@ -2025,22 +2025,22 @@
         <v>27</v>
       </c>
       <c r="O24" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>19</v>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
-          <t>22.2%</t>
+          <t>25.9%</t>
         </is>
       </c>
       <c r="S24" s="5" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>65.3%</t>
         </is>
       </c>
     </row>
@@ -2103,22 +2103,22 @@
         <v>27</v>
       </c>
       <c r="O25" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>19</v>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
-          <t>25.9%</t>
+          <t>29.6%</t>
         </is>
       </c>
       <c r="S25" s="5" t="inlineStr">
         <is>
-          <t>63.7%</t>
+          <t>65.4%</t>
         </is>
       </c>
     </row>
@@ -2181,22 +2181,22 @@
         <v>27</v>
       </c>
       <c r="O26" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
-          <t>25.9%</t>
+          <t>29.6%</t>
         </is>
       </c>
       <c r="S26" s="5" t="inlineStr">
         <is>
-          <t>55.7%</t>
+          <t>58.2%</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -6304,7 +6304,7 @@
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -8662,45 +8662,49 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B171" s="4" t="inlineStr">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>B1D1</t>
         </is>
       </c>
-      <c r="C171" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D171" s="4" t="inlineStr">
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E171" s="4" t="inlineStr">
+      <c r="E171" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F171" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G171" s="4" t="inlineStr"/>
-      <c r="H171" s="4" t="inlineStr">
-        <is>
-          <t>0/23</t>
-        </is>
-      </c>
-      <c r="I171" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F171" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G171" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>13/23</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -9851,45 +9855,49 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B198" s="4" t="inlineStr">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>B1D2</t>
         </is>
       </c>
-      <c r="C198" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D198" s="4" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E198" s="4" t="inlineStr">
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F198" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G198" s="4" t="inlineStr"/>
-      <c r="H198" s="4" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I198" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>24/30</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -11040,45 +11048,49 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B225" s="4" t="inlineStr">
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>B1E1</t>
         </is>
       </c>
-      <c r="C225" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D225" s="4" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E225" s="4" t="inlineStr">
+      <c r="E225" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F225" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G225" s="4" t="inlineStr"/>
-      <c r="H225" s="4" t="inlineStr">
-        <is>
-          <t>0/25</t>
-        </is>
-      </c>
-      <c r="I225" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>23/25</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -12225,45 +12237,49 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B252" s="4" t="inlineStr">
+      <c r="A252" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="inlineStr">
         <is>
           <t>B1E2</t>
         </is>
       </c>
-      <c r="C252" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D252" s="4" t="inlineStr">
+      <c r="C252" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E252" s="4" t="inlineStr">
+      <c r="E252" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F252" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G252" s="4" t="inlineStr"/>
-      <c r="H252" s="4" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I252" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F252" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G252" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H252" s="2" t="inlineStr">
+        <is>
+          <t>16/28</t>
+        </is>
+      </c>
+      <c r="I252" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -13414,45 +13430,49 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B279" s="4" t="inlineStr">
+      <c r="A279" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B279" s="2" t="inlineStr">
         <is>
           <t>B1F1</t>
         </is>
       </c>
-      <c r="C279" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D279" s="4" t="inlineStr">
+      <c r="C279" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D279" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E279" s="4" t="inlineStr">
+      <c r="E279" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F279" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G279" s="4" t="inlineStr"/>
-      <c r="H279" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I279" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F279" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G279" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H279" s="2" t="inlineStr">
+        <is>
+          <t>20/26</t>
+        </is>
+      </c>
+      <c r="I279" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -14603,45 +14623,49 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B306" s="4" t="inlineStr">
+      <c r="A306" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B306" s="2" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="C306" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D306" s="4" t="inlineStr">
+      <c r="C306" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D306" s="2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E306" s="4" t="inlineStr">
+      <c r="E306" s="2" t="inlineStr">
         <is>
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="F306" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G306" s="4" t="inlineStr"/>
-      <c r="H306" s="4" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I306" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F306" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G306" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H306" s="2" t="inlineStr">
+        <is>
+          <t>22/29</t>
+        </is>
+      </c>
+      <c r="I306" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -6367,7 +6367,7 @@
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -7470,7 +7470,7 @@
       </c>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -12258,7 +12258,7 @@
       </c>
       <c r="G251" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H251" s="2" t="inlineStr">
@@ -13455,7 +13455,7 @@
       </c>
       <c r="G278" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H278" s="2" t="inlineStr">
@@ -14652,7 +14652,7 @@
       </c>
       <c r="G305" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H305" s="2" t="inlineStr">

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1090,45 +1090,45 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>B1A1</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E12" s="6" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>14/12/2025</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G12" s="6" t="inlineStr"/>
-      <c r="H12" s="6" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr"/>
+      <c r="H12" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I12" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -1330,10 +1330,10 @@
         <v>9</v>
       </c>
       <c r="P15" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R15" s="5" t="inlineStr">
         <is>
@@ -1408,10 +1408,10 @@
         <v>10</v>
       </c>
       <c r="P16" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R16" s="5" t="inlineStr">
         <is>
@@ -1486,10 +1486,10 @@
         <v>10</v>
       </c>
       <c r="P17" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R17" s="5" t="inlineStr">
         <is>
@@ -1564,10 +1564,10 @@
         <v>10</v>
       </c>
       <c r="P18" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
@@ -1642,10 +1642,10 @@
         <v>10</v>
       </c>
       <c r="P19" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
@@ -1720,10 +1720,10 @@
         <v>9</v>
       </c>
       <c r="P20" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2826,45 +2826,45 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B39" s="6" t="inlineStr">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>B1A2</t>
         </is>
       </c>
-      <c r="C39" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D39" s="6" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E39" s="6" t="inlineStr">
+      <c r="E39" s="4" t="inlineStr">
         <is>
           <t>14/12/2025</t>
         </is>
       </c>
-      <c r="F39" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G39" s="6" t="inlineStr"/>
-      <c r="H39" s="6" t="inlineStr">
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G39" s="4" t="inlineStr"/>
+      <c r="H39" s="4" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I39" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I39" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -4027,45 +4027,45 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B66" s="6" t="inlineStr">
+      <c r="A66" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="inlineStr">
         <is>
           <t>B1B1</t>
         </is>
       </c>
-      <c r="C66" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D66" s="6" t="inlineStr">
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D66" s="4" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E66" s="6" t="inlineStr">
+      <c r="E66" s="4" t="inlineStr">
         <is>
           <t>14/12/2025</t>
         </is>
       </c>
-      <c r="F66" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G66" s="6" t="inlineStr"/>
-      <c r="H66" s="6" t="inlineStr">
+      <c r="F66" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G66" s="4" t="inlineStr"/>
+      <c r="H66" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I66" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I66" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5228,45 +5228,45 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B93" s="6" t="inlineStr">
+      <c r="A93" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B93" s="4" t="inlineStr">
         <is>
           <t>B1B2</t>
         </is>
       </c>
-      <c r="C93" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D93" s="6" t="inlineStr">
+      <c r="C93" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D93" s="4" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E93" s="6" t="inlineStr">
+      <c r="E93" s="4" t="inlineStr">
         <is>
           <t>14/12/2025</t>
         </is>
       </c>
-      <c r="F93" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G93" s="6" t="inlineStr"/>
-      <c r="H93" s="6" t="inlineStr">
+      <c r="F93" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G93" s="4" t="inlineStr"/>
+      <c r="H93" s="4" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I93" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I93" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -6429,45 +6429,45 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B120" s="6" t="inlineStr">
+      <c r="A120" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B120" s="4" t="inlineStr">
         <is>
           <t>B1C1</t>
         </is>
       </c>
-      <c r="C120" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D120" s="6" t="inlineStr">
+      <c r="C120" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D120" s="4" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E120" s="6" t="inlineStr">
+      <c r="E120" s="4" t="inlineStr">
         <is>
           <t>14/12/2025</t>
         </is>
       </c>
-      <c r="F120" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G120" s="6" t="inlineStr"/>
-      <c r="H120" s="6" t="inlineStr">
+      <c r="F120" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G120" s="4" t="inlineStr"/>
+      <c r="H120" s="4" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I120" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I120" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7626,45 +7626,45 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B147" s="6" t="inlineStr">
+      <c r="A147" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B147" s="4" t="inlineStr">
         <is>
           <t>B1C2</t>
         </is>
       </c>
-      <c r="C147" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D147" s="6" t="inlineStr">
+      <c r="C147" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D147" s="4" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E147" s="6" t="inlineStr">
+      <c r="E147" s="4" t="inlineStr">
         <is>
           <t>14/12/2025</t>
         </is>
       </c>
-      <c r="F147" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G147" s="6" t="inlineStr"/>
-      <c r="H147" s="6" t="inlineStr">
+      <c r="F147" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G147" s="4" t="inlineStr"/>
+      <c r="H147" s="4" t="inlineStr">
         <is>
           <t>0/23</t>
         </is>
       </c>
-      <c r="I147" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I147" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="5" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -981,7 +981,7 @@
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>34.3%</t>
+          <t>36.1%</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="L10" s="5" t="inlineStr">
         <is>
-          <t>70.0%</t>
+          <t>70.4%</t>
         </is>
       </c>
     </row>
@@ -1090,45 +1090,49 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>B1A1</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>14/12/2025</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G12" s="4" t="inlineStr"/>
-      <c r="H12" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I12" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19/26</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -1327,22 +1331,22 @@
         <v>27</v>
       </c>
       <c r="O15" s="5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P15" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>16</v>
       </c>
       <c r="R15" s="5" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>37.0%</t>
         </is>
       </c>
       <c r="S15" s="5" t="inlineStr">
         <is>
-          <t>81.6%</t>
+          <t>80.8%</t>
         </is>
       </c>
     </row>
@@ -1405,22 +1409,22 @@
         <v>27</v>
       </c>
       <c r="O16" s="5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P16" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
       </c>
       <c r="R16" s="5" t="inlineStr">
         <is>
-          <t>37.0%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="S16" s="5" t="inlineStr">
         <is>
-          <t>75.6%</t>
+          <t>77.4%</t>
         </is>
       </c>
     </row>
@@ -1483,22 +1487,22 @@
         <v>27</v>
       </c>
       <c r="O17" s="5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P17" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
       </c>
       <c r="R17" s="5" t="inlineStr">
         <is>
-          <t>37.0%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="S17" s="5" t="inlineStr">
         <is>
-          <t>63.5%</t>
+          <t>63.6%</t>
         </is>
       </c>
     </row>
@@ -1561,22 +1565,22 @@
         <v>27</v>
       </c>
       <c r="O18" s="5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P18" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>16</v>
       </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
-          <t>37.0%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="S18" s="5" t="inlineStr">
         <is>
-          <t>65.2%</t>
+          <t>67.0%</t>
         </is>
       </c>
     </row>
@@ -1639,22 +1643,22 @@
         <v>27</v>
       </c>
       <c r="O19" s="5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P19" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
-          <t>37.0%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="S19" s="5" t="inlineStr">
         <is>
-          <t>68.3%</t>
+          <t>69.4%</t>
         </is>
       </c>
     </row>
@@ -1717,22 +1721,22 @@
         <v>27</v>
       </c>
       <c r="O20" s="5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P20" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>37.0%</t>
         </is>
       </c>
       <c r="S20" s="5" t="inlineStr">
         <is>
-          <t>72.9%</t>
+          <t>73.0%</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2768,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -2826,45 +2830,49 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>B1A2</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E39" s="4" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>14/12/2025</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G39" s="4" t="inlineStr"/>
-      <c r="H39" s="4" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I39" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>26/27</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3973,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4027,45 +4035,49 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B66" s="4" t="inlineStr">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>B1B1</t>
         </is>
       </c>
-      <c r="C66" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D66" s="4" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E66" s="4" t="inlineStr">
+      <c r="E66" s="2" t="inlineStr">
         <is>
           <t>14/12/2025</t>
         </is>
       </c>
-      <c r="F66" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G66" s="4" t="inlineStr"/>
-      <c r="H66" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I66" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>17/26</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5178,7 @@
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -5228,45 +5240,49 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B93" s="4" t="inlineStr">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>B1B2</t>
         </is>
       </c>
-      <c r="C93" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D93" s="4" t="inlineStr">
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E93" s="4" t="inlineStr">
+      <c r="E93" s="2" t="inlineStr">
         <is>
           <t>14/12/2025</t>
         </is>
       </c>
-      <c r="F93" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G93" s="4" t="inlineStr"/>
-      <c r="H93" s="4" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I93" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>23/27</t>
+        </is>
+      </c>
+      <c r="I93" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -6367,7 +6383,7 @@
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -6429,45 +6445,49 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B120" s="4" t="inlineStr">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>B1C1</t>
         </is>
       </c>
-      <c r="C120" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D120" s="4" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E120" s="4" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
         <is>
           <t>14/12/2025</t>
         </is>
       </c>
-      <c r="F120" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G120" s="4" t="inlineStr"/>
-      <c r="H120" s="4" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I120" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>24/30</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -7564,7 +7584,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -7626,45 +7646,49 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B147" s="4" t="inlineStr">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
         <is>
           <t>B1C2</t>
         </is>
       </c>
-      <c r="C147" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D147" s="4" t="inlineStr">
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E147" s="4" t="inlineStr">
+      <c r="E147" s="2" t="inlineStr">
         <is>
           <t>14/12/2025</t>
         </is>
       </c>
-      <c r="F147" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G147" s="4" t="inlineStr"/>
-      <c r="H147" s="4" t="inlineStr">
-        <is>
-          <t>0/23</t>
-        </is>
-      </c>
-      <c r="I147" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
+        <is>
+          <t>17/23</t>
+        </is>
+      </c>
+      <c r="I147" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -8671,7 +8695,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9868,7 +9892,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -11065,7 +11089,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -12258,7 +12282,7 @@
       </c>
       <c r="G251" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H251" s="2" t="inlineStr">
@@ -13455,7 +13479,7 @@
       </c>
       <c r="G278" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H278" s="2" t="inlineStr">
@@ -14652,7 +14676,7 @@
       </c>
       <c r="G305" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H305" s="2" t="inlineStr">

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -5084,7 +5084,7 @@
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
@@ -7537,7 +7537,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9892,7 +9892,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -11089,7 +11089,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="G251" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H251" s="2" t="inlineStr">
@@ -13479,7 +13479,7 @@
       </c>
       <c r="G278" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H278" s="2" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="G305" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H305" s="2" t="inlineStr">

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1137,45 +1137,45 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>B1A1</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E13" s="6" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>15/12/2025</t>
         </is>
       </c>
-      <c r="F13" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G13" s="6" t="inlineStr"/>
-      <c r="H13" s="6" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr"/>
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I13" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K13" s="3" t="inlineStr">
@@ -1334,10 +1334,10 @@
         <v>10</v>
       </c>
       <c r="P15" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R15" s="5" t="inlineStr">
         <is>
@@ -1412,10 +1412,10 @@
         <v>11</v>
       </c>
       <c r="P16" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R16" s="5" t="inlineStr">
         <is>
@@ -1490,10 +1490,10 @@
         <v>11</v>
       </c>
       <c r="P17" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R17" s="5" t="inlineStr">
         <is>
@@ -1568,10 +1568,10 @@
         <v>11</v>
       </c>
       <c r="P18" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
@@ -1646,10 +1646,10 @@
         <v>11</v>
       </c>
       <c r="P19" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
@@ -1724,10 +1724,10 @@
         <v>10</v>
       </c>
       <c r="P20" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -2877,45 +2877,45 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B40" s="6" t="inlineStr">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>B1A2</t>
         </is>
       </c>
-      <c r="C40" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D40" s="6" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E40" s="6" t="inlineStr">
+      <c r="E40" s="4" t="inlineStr">
         <is>
           <t>15/12/2025</t>
         </is>
       </c>
-      <c r="F40" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G40" s="6" t="inlineStr"/>
-      <c r="H40" s="6" t="inlineStr">
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G40" s="4" t="inlineStr"/>
+      <c r="H40" s="4" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I40" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I40" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4082,45 +4082,45 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B67" s="6" t="inlineStr">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="inlineStr">
         <is>
           <t>B1B1</t>
         </is>
       </c>
-      <c r="C67" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D67" s="6" t="inlineStr">
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D67" s="4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E67" s="6" t="inlineStr">
+      <c r="E67" s="4" t="inlineStr">
         <is>
           <t>15/12/2025</t>
         </is>
       </c>
-      <c r="F67" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G67" s="6" t="inlineStr"/>
-      <c r="H67" s="6" t="inlineStr">
+      <c r="F67" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G67" s="4" t="inlineStr"/>
+      <c r="H67" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I67" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I67" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -5287,45 +5287,45 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B94" s="6" t="inlineStr">
+      <c r="A94" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B94" s="4" t="inlineStr">
         <is>
           <t>B1B2</t>
         </is>
       </c>
-      <c r="C94" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D94" s="6" t="inlineStr">
+      <c r="C94" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D94" s="4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E94" s="6" t="inlineStr">
+      <c r="E94" s="4" t="inlineStr">
         <is>
           <t>15/12/2025</t>
         </is>
       </c>
-      <c r="F94" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G94" s="6" t="inlineStr"/>
-      <c r="H94" s="6" t="inlineStr">
+      <c r="F94" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G94" s="4" t="inlineStr"/>
+      <c r="H94" s="4" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I94" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I94" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6289,7 +6289,7 @@
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -6492,45 +6492,45 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B121" s="6" t="inlineStr">
+      <c r="A121" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B121" s="4" t="inlineStr">
         <is>
           <t>B1C1</t>
         </is>
       </c>
-      <c r="C121" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D121" s="6" t="inlineStr">
+      <c r="C121" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D121" s="4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E121" s="6" t="inlineStr">
+      <c r="E121" s="4" t="inlineStr">
         <is>
           <t>15/12/2025</t>
         </is>
       </c>
-      <c r="F121" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G121" s="6" t="inlineStr"/>
-      <c r="H121" s="6" t="inlineStr">
+      <c r="F121" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G121" s="4" t="inlineStr"/>
+      <c r="H121" s="4" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I121" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I121" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7490,7 +7490,7 @@
       </c>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
@@ -7537,7 +7537,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -7693,45 +7693,45 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B148" s="6" t="inlineStr">
+      <c r="A148" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B148" s="4" t="inlineStr">
         <is>
           <t>B1C2</t>
         </is>
       </c>
-      <c r="C148" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D148" s="6" t="inlineStr">
+      <c r="C148" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D148" s="4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E148" s="6" t="inlineStr">
+      <c r="E148" s="4" t="inlineStr">
         <is>
           <t>15/12/2025</t>
         </is>
       </c>
-      <c r="F148" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G148" s="6" t="inlineStr"/>
-      <c r="H148" s="6" t="inlineStr">
+      <c r="F148" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G148" s="4" t="inlineStr"/>
+      <c r="H148" s="4" t="inlineStr">
         <is>
           <t>0/23</t>
         </is>
       </c>
-      <c r="I148" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I148" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8695,7 +8695,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9892,7 +9892,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -11089,7 +11089,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="G251" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H251" s="2" t="inlineStr">
@@ -13479,7 +13479,7 @@
       </c>
       <c r="G278" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H278" s="2" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="G305" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H305" s="2" t="inlineStr">

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="5" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>36.1%</t>
+          <t>38.0%</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="L10" s="5" t="inlineStr">
         <is>
-          <t>70.4%</t>
+          <t>71.2%</t>
         </is>
       </c>
     </row>
@@ -1799,22 +1799,22 @@
         <v>27</v>
       </c>
       <c r="O21" s="5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>17</v>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>37.0%</t>
         </is>
       </c>
       <c r="S21" s="5" t="inlineStr">
         <is>
-          <t>74.4%</t>
+          <t>76.5%</t>
         </is>
       </c>
     </row>
@@ -1877,22 +1877,22 @@
         <v>27</v>
       </c>
       <c r="O22" s="5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>37.0%</t>
         </is>
       </c>
       <c r="S22" s="5" t="inlineStr">
         <is>
-          <t>72.2%</t>
+          <t>73.7%</t>
         </is>
       </c>
     </row>
@@ -1955,22 +1955,22 @@
         <v>27</v>
       </c>
       <c r="O23" s="5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>17</v>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>37.0%</t>
         </is>
       </c>
       <c r="S23" s="5" t="inlineStr">
         <is>
-          <t>78.2%</t>
+          <t>80.0%</t>
         </is>
       </c>
     </row>
@@ -2033,22 +2033,22 @@
         <v>27</v>
       </c>
       <c r="O24" s="5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>17</v>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
-          <t>29.6%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="S24" s="5" t="inlineStr">
         <is>
-          <t>65.6%</t>
+          <t>67.5%</t>
         </is>
       </c>
     </row>
@@ -2111,22 +2111,22 @@
         <v>27</v>
       </c>
       <c r="O25" s="5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>37.0%</t>
         </is>
       </c>
       <c r="S25" s="5" t="inlineStr">
         <is>
-          <t>65.4%</t>
+          <t>66.5%</t>
         </is>
       </c>
     </row>
@@ -2189,22 +2189,22 @@
         <v>27</v>
       </c>
       <c r="O26" s="5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>17</v>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>37.0%</t>
         </is>
       </c>
       <c r="S26" s="5" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>59.0%</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -5084,7 +5084,7 @@
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
@@ -7537,7 +7537,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -8804,45 +8804,49 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B173" s="4" t="inlineStr">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
         <is>
           <t>B1D1</t>
         </is>
       </c>
-      <c r="C173" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D173" s="4" t="inlineStr">
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E173" s="4" t="inlineStr">
+      <c r="E173" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F173" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G173" s="4" t="inlineStr"/>
-      <c r="H173" s="4" t="inlineStr">
-        <is>
-          <t>0/23</t>
-        </is>
-      </c>
-      <c r="I173" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G173" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>22/23</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -9892,7 +9896,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -10001,45 +10005,49 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B200" s="4" t="inlineStr">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
         <is>
           <t>B1D2</t>
         </is>
       </c>
-      <c r="C200" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D200" s="4" t="inlineStr">
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E200" s="4" t="inlineStr">
+      <c r="E200" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F200" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G200" s="4" t="inlineStr"/>
-      <c r="H200" s="4" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I200" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
+        <is>
+          <t>26/30</t>
+        </is>
+      </c>
+      <c r="I200" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -11089,7 +11097,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -11198,45 +11206,49 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B227" s="4" t="inlineStr">
+      <c r="A227" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>B1E1</t>
         </is>
       </c>
-      <c r="C227" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D227" s="4" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E227" s="4" t="inlineStr">
+      <c r="E227" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F227" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G227" s="4" t="inlineStr"/>
-      <c r="H227" s="4" t="inlineStr">
-        <is>
-          <t>0/25</t>
-        </is>
-      </c>
-      <c r="I227" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
+        <is>
+          <t>24/25</t>
+        </is>
+      </c>
+      <c r="I227" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -12282,7 +12294,7 @@
       </c>
       <c r="G251" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H251" s="2" t="inlineStr">
@@ -12391,45 +12403,49 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B254" s="4" t="inlineStr">
+      <c r="A254" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>B1E2</t>
         </is>
       </c>
-      <c r="C254" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D254" s="4" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E254" s="4" t="inlineStr">
+      <c r="E254" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F254" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G254" s="4" t="inlineStr"/>
-      <c r="H254" s="4" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I254" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F254" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G254" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>23/28</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -13479,7 +13495,7 @@
       </c>
       <c r="G278" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H278" s="2" t="inlineStr">
@@ -13588,45 +13604,49 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B281" s="4" t="inlineStr">
+      <c r="A281" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B281" s="2" t="inlineStr">
         <is>
           <t>B1F1</t>
         </is>
       </c>
-      <c r="C281" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D281" s="4" t="inlineStr">
+      <c r="C281" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D281" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E281" s="4" t="inlineStr">
+      <c r="E281" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F281" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G281" s="4" t="inlineStr"/>
-      <c r="H281" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I281" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F281" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G281" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H281" s="2" t="inlineStr">
+        <is>
+          <t>20/26</t>
+        </is>
+      </c>
+      <c r="I281" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -14676,7 +14696,7 @@
       </c>
       <c r="G305" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H305" s="2" t="inlineStr">
@@ -14785,45 +14805,49 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B308" s="4" t="inlineStr">
+      <c r="A308" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B308" s="2" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="C308" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D308" s="4" t="inlineStr">
+      <c r="C308" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D308" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E308" s="4" t="inlineStr">
+      <c r="E308" s="2" t="inlineStr">
         <is>
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="F308" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G308" s="4" t="inlineStr"/>
-      <c r="H308" s="4" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I308" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F308" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G308" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H308" s="2" t="inlineStr">
+        <is>
+          <t>22/29</t>
+        </is>
+      </c>
+      <c r="I308" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7322,7 +7322,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="5" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -981,7 +981,7 @@
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>38.7%</t>
+          <t>40.6%</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="L10" s="5" t="inlineStr">
         <is>
-          <t>71.2%</t>
+          <t>71.5%</t>
         </is>
       </c>
     </row>
@@ -1799,22 +1799,22 @@
         <v>27</v>
       </c>
       <c r="O21" s="5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>16</v>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
-          <t>37.0%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="S21" s="5" t="inlineStr">
         <is>
-          <t>76.5%</t>
+          <t>77.1%</t>
         </is>
       </c>
     </row>
@@ -1877,22 +1877,22 @@
         <v>27</v>
       </c>
       <c r="O22" s="5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
-          <t>37.0%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="S22" s="5" t="inlineStr">
         <is>
-          <t>73.7%</t>
+          <t>74.2%</t>
         </is>
       </c>
     </row>
@@ -1955,17 +1955,17 @@
         <v>27</v>
       </c>
       <c r="O23" s="5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>16</v>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
-          <t>37.0%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="S23" s="5" t="inlineStr">
@@ -2033,22 +2033,22 @@
         <v>27</v>
       </c>
       <c r="O24" s="5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>37.0%</t>
         </is>
       </c>
       <c r="S24" s="5" t="inlineStr">
         <is>
-          <t>67.5%</t>
+          <t>69.6%</t>
         </is>
       </c>
     </row>
@@ -2111,22 +2111,22 @@
         <v>27</v>
       </c>
       <c r="O25" s="5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
-          <t>37.0%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="S25" s="5" t="inlineStr">
         <is>
-          <t>66.5%</t>
+          <t>67.5%</t>
         </is>
       </c>
     </row>
@@ -2189,22 +2189,22 @@
         <v>27</v>
       </c>
       <c r="O26" s="5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
-          <t>37.0%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="S26" s="5" t="inlineStr">
         <is>
-          <t>59.0%</t>
+          <t>59.2%</t>
         </is>
       </c>
     </row>
@@ -8593,45 +8593,49 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B168" s="4" t="inlineStr">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
         <is>
           <t>B1D1</t>
         </is>
       </c>
-      <c r="C168" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D168" s="4" t="inlineStr">
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E168" s="4" t="inlineStr">
+      <c r="E168" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F168" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G168" s="4" t="inlineStr"/>
-      <c r="H168" s="4" t="inlineStr">
-        <is>
-          <t>0/23</t>
-        </is>
-      </c>
-      <c r="I168" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F168" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G168" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H168" s="2" t="inlineStr">
+        <is>
+          <t>19/23</t>
+        </is>
+      </c>
+      <c r="I168" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -9794,45 +9798,49 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B195" s="4" t="inlineStr">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
         <is>
           <t>B1D2</t>
         </is>
       </c>
-      <c r="C195" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D195" s="4" t="inlineStr">
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E195" s="4" t="inlineStr">
+      <c r="E195" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F195" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G195" s="4" t="inlineStr"/>
-      <c r="H195" s="4" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I195" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F195" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G195" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>24/30</t>
+        </is>
+      </c>
+      <c r="I195" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10995,45 +11003,49 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B222" s="4" t="inlineStr">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
         <is>
           <t>B1E1</t>
         </is>
       </c>
-      <c r="C222" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D222" s="4" t="inlineStr">
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E222" s="4" t="inlineStr">
+      <c r="E222" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F222" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G222" s="4" t="inlineStr"/>
-      <c r="H222" s="4" t="inlineStr">
-        <is>
-          <t>0/25</t>
-        </is>
-      </c>
-      <c r="I222" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>20/25</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -12192,45 +12204,49 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B249" s="4" t="inlineStr">
+      <c r="A249" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>B1E2</t>
         </is>
       </c>
-      <c r="C249" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D249" s="4" t="inlineStr">
+      <c r="C249" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E249" s="4" t="inlineStr">
+      <c r="E249" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F249" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G249" s="4" t="inlineStr"/>
-      <c r="H249" s="4" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I249" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F249" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G249" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>25/28</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -13393,45 +13409,49 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B276" s="4" t="inlineStr">
+      <c r="A276" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B276" s="2" t="inlineStr">
         <is>
           <t>B1F1</t>
         </is>
       </c>
-      <c r="C276" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D276" s="4" t="inlineStr">
+      <c r="C276" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D276" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E276" s="4" t="inlineStr">
+      <c r="E276" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F276" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G276" s="4" t="inlineStr"/>
-      <c r="H276" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I276" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F276" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G276" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H276" s="2" t="inlineStr">
+        <is>
+          <t>20/26</t>
+        </is>
+      </c>
+      <c r="I276" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -14594,45 +14614,49 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B303" s="4" t="inlineStr">
+      <c r="A303" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B303" s="2" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="C303" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D303" s="4" t="inlineStr">
+      <c r="C303" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D303" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E303" s="4" t="inlineStr">
+      <c r="E303" s="2" t="inlineStr">
         <is>
           <t>17/12/2025</t>
         </is>
       </c>
-      <c r="F303" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G303" s="4" t="inlineStr"/>
-      <c r="H303" s="4" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I303" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F303" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G303" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H303" s="2" t="inlineStr">
+        <is>
+          <t>18/29</t>
+        </is>
+      </c>
+      <c r="I303" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1802,10 +1802,10 @@
         <v>11</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
@@ -1880,10 +1880,10 @@
         <v>11</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
@@ -1958,10 +1958,10 @@
         <v>11</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
@@ -2036,10 +2036,10 @@
         <v>10</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
@@ -2114,10 +2114,10 @@
         <v>11</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
@@ -2192,10 +2192,10 @@
         <v>11</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
@@ -8640,45 +8640,45 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B169" s="6" t="inlineStr">
+      <c r="A169" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B169" s="4" t="inlineStr">
         <is>
           <t>B1D1</t>
         </is>
       </c>
-      <c r="C169" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D169" s="6" t="inlineStr">
+      <c r="C169" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D169" s="4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E169" s="6" t="inlineStr">
+      <c r="E169" s="4" t="inlineStr">
         <is>
           <t>18/12/2025</t>
         </is>
       </c>
-      <c r="F169" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G169" s="6" t="inlineStr"/>
-      <c r="H169" s="6" t="inlineStr">
+      <c r="F169" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G169" s="4" t="inlineStr"/>
+      <c r="H169" s="4" t="inlineStr">
         <is>
           <t>0/23</t>
         </is>
       </c>
-      <c r="I169" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I169" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9845,45 +9845,45 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B196" s="6" t="inlineStr">
+      <c r="A196" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B196" s="4" t="inlineStr">
         <is>
           <t>B1D2</t>
         </is>
       </c>
-      <c r="C196" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D196" s="6" t="inlineStr">
+      <c r="C196" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D196" s="4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E196" s="6" t="inlineStr">
+      <c r="E196" s="4" t="inlineStr">
         <is>
           <t>18/12/2025</t>
         </is>
       </c>
-      <c r="F196" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G196" s="6" t="inlineStr"/>
-      <c r="H196" s="6" t="inlineStr">
+      <c r="F196" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G196" s="4" t="inlineStr"/>
+      <c r="H196" s="4" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I196" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I196" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11050,45 +11050,45 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B223" s="6" t="inlineStr">
+      <c r="A223" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B223" s="4" t="inlineStr">
         <is>
           <t>B1E1</t>
         </is>
       </c>
-      <c r="C223" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D223" s="6" t="inlineStr">
+      <c r="C223" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D223" s="4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E223" s="6" t="inlineStr">
+      <c r="E223" s="4" t="inlineStr">
         <is>
           <t>18/12/2025</t>
         </is>
       </c>
-      <c r="F223" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G223" s="6" t="inlineStr"/>
-      <c r="H223" s="6" t="inlineStr">
+      <c r="F223" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G223" s="4" t="inlineStr"/>
+      <c r="H223" s="4" t="inlineStr">
         <is>
           <t>0/25</t>
         </is>
       </c>
-      <c r="I223" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I223" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -12251,45 +12251,45 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B250" s="6" t="inlineStr">
+      <c r="A250" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B250" s="4" t="inlineStr">
         <is>
           <t>B1E2</t>
         </is>
       </c>
-      <c r="C250" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D250" s="6" t="inlineStr">
+      <c r="C250" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D250" s="4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E250" s="6" t="inlineStr">
+      <c r="E250" s="4" t="inlineStr">
         <is>
           <t>18/12/2025</t>
         </is>
       </c>
-      <c r="F250" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G250" s="6" t="inlineStr"/>
-      <c r="H250" s="6" t="inlineStr">
+      <c r="F250" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G250" s="4" t="inlineStr"/>
+      <c r="H250" s="4" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I250" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I250" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13456,45 +13456,45 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B277" s="6" t="inlineStr">
+      <c r="A277" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B277" s="4" t="inlineStr">
         <is>
           <t>B1F1</t>
         </is>
       </c>
-      <c r="C277" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D277" s="6" t="inlineStr">
+      <c r="C277" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D277" s="4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E277" s="6" t="inlineStr">
+      <c r="E277" s="4" t="inlineStr">
         <is>
           <t>18/12/2025</t>
         </is>
       </c>
-      <c r="F277" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G277" s="6" t="inlineStr"/>
-      <c r="H277" s="6" t="inlineStr">
+      <c r="F277" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G277" s="4" t="inlineStr"/>
+      <c r="H277" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I277" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I277" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14661,45 +14661,45 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B304" s="6" t="inlineStr">
+      <c r="A304" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B304" s="4" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="C304" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D304" s="6" t="inlineStr">
+      <c r="C304" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D304" s="4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E304" s="6" t="inlineStr">
+      <c r="E304" s="4" t="inlineStr">
         <is>
           <t>18/12/2025</t>
         </is>
       </c>
-      <c r="F304" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G304" s="6" t="inlineStr"/>
-      <c r="H304" s="6" t="inlineStr">
+      <c r="F304" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G304" s="4" t="inlineStr"/>
+      <c r="H304" s="4" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I304" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I304" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="5" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>40.6%</t>
+          <t>42.5%</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="L10" s="5" t="inlineStr">
         <is>
-          <t>71.5%</t>
+          <t>72.0%</t>
         </is>
       </c>
     </row>
@@ -1799,22 +1799,22 @@
         <v>27</v>
       </c>
       <c r="O21" s="5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>15</v>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
-          <t>40.7%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="S21" s="5" t="inlineStr">
         <is>
-          <t>77.1%</t>
+          <t>77.5%</t>
         </is>
       </c>
     </row>
@@ -1877,22 +1877,22 @@
         <v>27</v>
       </c>
       <c r="O22" s="5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
-          <t>40.7%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="S22" s="5" t="inlineStr">
         <is>
-          <t>74.2%</t>
+          <t>75.6%</t>
         </is>
       </c>
     </row>
@@ -1955,22 +1955,22 @@
         <v>27</v>
       </c>
       <c r="O23" s="5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>15</v>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
-          <t>40.7%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="S23" s="5" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>80.3%</t>
         </is>
       </c>
     </row>
@@ -2033,22 +2033,22 @@
         <v>27</v>
       </c>
       <c r="O24" s="5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
-          <t>37.0%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="S24" s="5" t="inlineStr">
         <is>
-          <t>69.6%</t>
+          <t>70.1%</t>
         </is>
       </c>
     </row>
@@ -2111,22 +2111,22 @@
         <v>27</v>
       </c>
       <c r="O25" s="5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
-          <t>40.7%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="S25" s="5" t="inlineStr">
         <is>
-          <t>67.5%</t>
+          <t>69.2%</t>
         </is>
       </c>
     </row>
@@ -2189,22 +2189,22 @@
         <v>27</v>
       </c>
       <c r="O26" s="5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>15</v>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
-          <t>40.7%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="S26" s="5" t="inlineStr">
         <is>
-          <t>59.2%</t>
+          <t>60.6%</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7322,7 +7322,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -8437,7 +8437,7 @@
       </c>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -8578,7 +8578,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8640,45 +8640,49 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B169" s="4" t="inlineStr">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
         <is>
           <t>B1D1</t>
         </is>
       </c>
-      <c r="C169" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D169" s="4" t="inlineStr">
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E169" s="4" t="inlineStr">
+      <c r="E169" s="2" t="inlineStr">
         <is>
           <t>18/12/2025</t>
         </is>
       </c>
-      <c r="F169" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G169" s="4" t="inlineStr"/>
-      <c r="H169" s="4" t="inlineStr">
-        <is>
-          <t>0/23</t>
-        </is>
-      </c>
-      <c r="I169" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F169" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G169" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>19/23</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -9642,7 +9646,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -9783,7 +9787,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -9845,45 +9849,49 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B196" s="4" t="inlineStr">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
         <is>
           <t>B1D2</t>
         </is>
       </c>
-      <c r="C196" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D196" s="4" t="inlineStr">
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E196" s="4" t="inlineStr">
+      <c r="E196" s="2" t="inlineStr">
         <is>
           <t>18/12/2025</t>
         </is>
       </c>
-      <c r="F196" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G196" s="4" t="inlineStr"/>
-      <c r="H196" s="4" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I196" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F196" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G196" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H196" s="2" t="inlineStr">
+        <is>
+          <t>27/30</t>
+        </is>
+      </c>
+      <c r="I196" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10847,7 +10855,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -10988,7 +10996,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11050,45 +11058,49 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B223" s="4" t="inlineStr">
+      <c r="A223" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>B1E1</t>
         </is>
       </c>
-      <c r="C223" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D223" s="4" t="inlineStr">
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E223" s="4" t="inlineStr">
+      <c r="E223" s="2" t="inlineStr">
         <is>
           <t>18/12/2025</t>
         </is>
       </c>
-      <c r="F223" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G223" s="4" t="inlineStr"/>
-      <c r="H223" s="4" t="inlineStr">
-        <is>
-          <t>0/25</t>
-        </is>
-      </c>
-      <c r="I223" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>21/25</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -12048,7 +12060,7 @@
       </c>
       <c r="G245" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H245" s="2" t="inlineStr">
@@ -12189,7 +12201,7 @@
       </c>
       <c r="G248" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H248" s="2" t="inlineStr">
@@ -12251,45 +12263,49 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B250" s="4" t="inlineStr">
+      <c r="A250" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>B1E2</t>
         </is>
       </c>
-      <c r="C250" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D250" s="4" t="inlineStr">
+      <c r="C250" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E250" s="4" t="inlineStr">
+      <c r="E250" s="2" t="inlineStr">
         <is>
           <t>18/12/2025</t>
         </is>
       </c>
-      <c r="F250" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G250" s="4" t="inlineStr"/>
-      <c r="H250" s="4" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I250" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G250" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t>21/28</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -13253,7 +13269,7 @@
       </c>
       <c r="G272" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H272" s="2" t="inlineStr">
@@ -13394,7 +13410,7 @@
       </c>
       <c r="G275" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H275" s="2" t="inlineStr">
@@ -13456,45 +13472,49 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B277" s="4" t="inlineStr">
+      <c r="A277" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B277" s="2" t="inlineStr">
         <is>
           <t>B1F1</t>
         </is>
       </c>
-      <c r="C277" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D277" s="4" t="inlineStr">
+      <c r="C277" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D277" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E277" s="4" t="inlineStr">
+      <c r="E277" s="2" t="inlineStr">
         <is>
           <t>18/12/2025</t>
         </is>
       </c>
-      <c r="F277" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G277" s="4" t="inlineStr"/>
-      <c r="H277" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I277" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F277" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G277" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H277" s="2" t="inlineStr">
+        <is>
+          <t>23/26</t>
+        </is>
+      </c>
+      <c r="I277" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -14458,7 +14478,7 @@
       </c>
       <c r="G299" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H299" s="2" t="inlineStr">
@@ -14599,7 +14619,7 @@
       </c>
       <c r="G302" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H302" s="2" t="inlineStr">
@@ -14661,45 +14681,49 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B304" s="4" t="inlineStr">
+      <c r="A304" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B304" s="2" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="C304" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D304" s="4" t="inlineStr">
+      <c r="C304" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D304" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E304" s="4" t="inlineStr">
+      <c r="E304" s="2" t="inlineStr">
         <is>
           <t>18/12/2025</t>
         </is>
       </c>
-      <c r="F304" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G304" s="4" t="inlineStr"/>
-      <c r="H304" s="4" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I304" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F304" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G304" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H304" s="2" t="inlineStr">
+        <is>
+          <t>22/29</t>
+        </is>
+      </c>
+      <c r="I304" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="5" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>42.5%</t>
+          <t>44.3%</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="L10" s="5" t="inlineStr">
         <is>
-          <t>72.0%</t>
+          <t>72.6%</t>
         </is>
       </c>
     </row>
@@ -1185,45 +1185,49 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>B1A1</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E14" s="6" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>21/12/2025</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I14" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>24/26</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -1331,22 +1335,22 @@
         <v>26</v>
       </c>
       <c r="O15" s="5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P15" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R15" s="5" t="inlineStr">
         <is>
-          <t>38.5%</t>
+          <t>42.3%</t>
         </is>
       </c>
       <c r="S15" s="5" t="inlineStr">
         <is>
-          <t>80.8%</t>
+          <t>81.8%</t>
         </is>
       </c>
     </row>
@@ -1409,22 +1413,22 @@
         <v>26</v>
       </c>
       <c r="O16" s="5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R16" s="5" t="inlineStr">
         <is>
-          <t>42.3%</t>
+          <t>46.2%</t>
         </is>
       </c>
       <c r="S16" s="5" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>78.4%</t>
         </is>
       </c>
     </row>
@@ -1487,22 +1491,22 @@
         <v>26</v>
       </c>
       <c r="O17" s="5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R17" s="5" t="inlineStr">
         <is>
-          <t>42.3%</t>
+          <t>46.2%</t>
         </is>
       </c>
       <c r="S17" s="5" t="inlineStr">
         <is>
-          <t>63.6%</t>
+          <t>64.7%</t>
         </is>
       </c>
     </row>
@@ -1565,22 +1569,22 @@
         <v>26</v>
       </c>
       <c r="O18" s="5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q18" s="5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
-          <t>42.3%</t>
+          <t>46.2%</t>
         </is>
       </c>
       <c r="S18" s="5" t="inlineStr">
         <is>
-          <t>67.0%</t>
+          <t>68.5%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1647,22 @@
         <v>26</v>
       </c>
       <c r="O19" s="5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q19" s="5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
-          <t>42.3%</t>
+          <t>46.2%</t>
         </is>
       </c>
       <c r="S19" s="5" t="inlineStr">
         <is>
-          <t>69.4%</t>
+          <t>70.8%</t>
         </is>
       </c>
     </row>
@@ -1721,22 +1725,22 @@
         <v>26</v>
       </c>
       <c r="O20" s="5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P20" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
-          <t>38.5%</t>
+          <t>42.3%</t>
         </is>
       </c>
       <c r="S20" s="5" t="inlineStr">
         <is>
-          <t>73.0%</t>
+          <t>74.3%</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2635,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2678,7 +2682,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2725,7 +2729,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2877,45 +2881,49 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B40" s="6" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>B1A2</t>
         </is>
       </c>
-      <c r="C40" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D40" s="6" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E40" s="6" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
         <is>
           <t>21/12/2025</t>
         </is>
       </c>
-      <c r="F40" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G40" s="6" t="inlineStr"/>
-      <c r="H40" s="6" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I40" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>24/27</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3801,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3840,7 +3848,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3887,7 +3895,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4039,45 +4047,49 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B66" s="6" t="inlineStr">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>B1B1</t>
         </is>
       </c>
-      <c r="C66" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D66" s="6" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E66" s="6" t="inlineStr">
+      <c r="E66" s="2" t="inlineStr">
         <is>
           <t>21/12/2025</t>
         </is>
       </c>
-      <c r="F66" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G66" s="6" t="inlineStr"/>
-      <c r="H66" s="6" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I66" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>20/26</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -4955,7 +4967,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5002,7 +5014,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5049,7 +5061,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5201,45 +5213,49 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B92" s="6" t="inlineStr">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>B1B2</t>
         </is>
       </c>
-      <c r="C92" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D92" s="6" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E92" s="6" t="inlineStr">
+      <c r="E92" s="2" t="inlineStr">
         <is>
           <t>21/12/2025</t>
         </is>
       </c>
-      <c r="F92" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G92" s="6" t="inlineStr"/>
-      <c r="H92" s="6" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I92" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>23/27</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6133,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6164,7 +6180,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6211,7 +6227,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6363,45 +6379,49 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B118" s="6" t="inlineStr">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
         <is>
           <t>B1C1</t>
         </is>
       </c>
-      <c r="C118" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D118" s="6" t="inlineStr">
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E118" s="6" t="inlineStr">
+      <c r="E118" s="2" t="inlineStr">
         <is>
           <t>21/12/2025</t>
         </is>
       </c>
-      <c r="F118" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G118" s="6" t="inlineStr"/>
-      <c r="H118" s="6" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I118" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>26/30</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -7275,7 +7295,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7322,7 +7342,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7369,7 +7389,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -7521,45 +7541,49 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B144" s="6" t="inlineStr">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>B1C2</t>
         </is>
       </c>
-      <c r="C144" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D144" s="6" t="inlineStr">
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E144" s="6" t="inlineStr">
+      <c r="E144" s="2" t="inlineStr">
         <is>
           <t>21/12/2025</t>
         </is>
       </c>
-      <c r="F144" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G144" s="6" t="inlineStr"/>
-      <c r="H144" s="6" t="inlineStr">
-        <is>
-          <t>0/23</t>
-        </is>
-      </c>
-      <c r="I144" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>20/23</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -8437,7 +8461,7 @@
       </c>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -8578,7 +8602,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -9646,7 +9670,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -9787,7 +9811,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -10855,7 +10879,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -10996,7 +11020,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -12060,7 +12084,7 @@
       </c>
       <c r="G245" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H245" s="2" t="inlineStr">
@@ -12201,7 +12225,7 @@
       </c>
       <c r="G248" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H248" s="2" t="inlineStr">
@@ -13269,7 +13293,7 @@
       </c>
       <c r="G272" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H272" s="2" t="inlineStr">
@@ -13410,7 +13434,7 @@
       </c>
       <c r="G275" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H275" s="2" t="inlineStr">
@@ -14478,7 +14502,7 @@
       </c>
       <c r="G299" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H299" s="2" t="inlineStr">
@@ -14619,7 +14643,7 @@
       </c>
       <c r="G302" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H302" s="2" t="inlineStr">

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7362,7 +7362,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -8626,7 +8626,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -9835,7 +9835,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -11044,7 +11044,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="G248" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H248" s="2" t="inlineStr">
@@ -13458,7 +13458,7 @@
       </c>
       <c r="G275" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H275" s="2" t="inlineStr">
@@ -14667,7 +14667,7 @@
       </c>
       <c r="G302" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H302" s="2" t="inlineStr">

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="5" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>48.1%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="L10" s="5" t="inlineStr">
         <is>
-          <t>73.3%</t>
+          <t>73.5%</t>
         </is>
       </c>
     </row>
@@ -1811,22 +1811,22 @@
         <v>27</v>
       </c>
       <c r="O21" s="5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>14</v>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>48.1%</t>
         </is>
       </c>
       <c r="S21" s="5" t="inlineStr">
         <is>
-          <t>77.5%</t>
+          <t>76.9%</t>
         </is>
       </c>
     </row>
@@ -1889,22 +1889,22 @@
         <v>27</v>
       </c>
       <c r="O22" s="5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>48.1%</t>
         </is>
       </c>
       <c r="S22" s="5" t="inlineStr">
         <is>
-          <t>75.6%</t>
+          <t>76.2%</t>
         </is>
       </c>
     </row>
@@ -1967,22 +1967,22 @@
         <v>27</v>
       </c>
       <c r="O23" s="5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>48.1%</t>
         </is>
       </c>
       <c r="S23" s="5" t="inlineStr">
         <is>
-          <t>80.3%</t>
+          <t>80.6%</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
         <v>27</v>
       </c>
       <c r="O24" s="5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
-          <t>40.7%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="S24" s="5" t="inlineStr">
         <is>
-          <t>70.1%</t>
+          <t>70.5%</t>
         </is>
       </c>
     </row>
@@ -2123,22 +2123,22 @@
         <v>27</v>
       </c>
       <c r="O25" s="5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>48.1%</t>
         </is>
       </c>
       <c r="S25" s="5" t="inlineStr">
         <is>
-          <t>69.2%</t>
+          <t>70.1%</t>
         </is>
       </c>
     </row>
@@ -2201,22 +2201,22 @@
         <v>27</v>
       </c>
       <c r="O26" s="5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>14</v>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>48.1%</t>
         </is>
       </c>
       <c r="S26" s="5" t="inlineStr">
         <is>
-          <t>60.6%</t>
+          <t>61.8%</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6259,7 +6259,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7382,7 +7382,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -8509,7 +8509,7 @@
       </c>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8759,45 +8759,49 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B170" s="4" t="inlineStr">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
         <is>
           <t>B1D1</t>
         </is>
       </c>
-      <c r="C170" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D170" s="4" t="inlineStr">
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E170" s="4" t="inlineStr">
+      <c r="E170" s="2" t="inlineStr">
         <is>
           <t>23/12/2025</t>
         </is>
       </c>
-      <c r="F170" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G170" s="4" t="inlineStr"/>
-      <c r="H170" s="4" t="inlineStr">
-        <is>
-          <t>0/23</t>
-        </is>
-      </c>
-      <c r="I170" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G170" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>16/23</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -9718,7 +9722,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -9859,7 +9863,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -9968,45 +9972,49 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B197" s="4" t="inlineStr">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>B1D2</t>
         </is>
       </c>
-      <c r="C197" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D197" s="4" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E197" s="4" t="inlineStr">
+      <c r="E197" s="2" t="inlineStr">
         <is>
           <t>23/12/2025</t>
         </is>
       </c>
-      <c r="F197" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G197" s="4" t="inlineStr"/>
-      <c r="H197" s="4" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I197" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F197" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G197" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>25/30</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10927,7 +10935,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -11068,7 +11076,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11177,45 +11185,49 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B224" s="4" t="inlineStr">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t>B1E1</t>
         </is>
       </c>
-      <c r="C224" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D224" s="4" t="inlineStr">
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E224" s="4" t="inlineStr">
+      <c r="E224" s="2" t="inlineStr">
         <is>
           <t>23/12/2025</t>
         </is>
       </c>
-      <c r="F224" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G224" s="4" t="inlineStr"/>
-      <c r="H224" s="4" t="inlineStr">
-        <is>
-          <t>0/25</t>
-        </is>
-      </c>
-      <c r="I224" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>21/25</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -12132,7 +12144,7 @@
       </c>
       <c r="G245" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H245" s="2" t="inlineStr">
@@ -12273,7 +12285,7 @@
       </c>
       <c r="G248" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H248" s="2" t="inlineStr">
@@ -12382,45 +12394,49 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B251" s="4" t="inlineStr">
+      <c r="A251" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B251" s="2" t="inlineStr">
         <is>
           <t>B1E2</t>
         </is>
       </c>
-      <c r="C251" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D251" s="4" t="inlineStr">
+      <c r="C251" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E251" s="4" t="inlineStr">
+      <c r="E251" s="2" t="inlineStr">
         <is>
           <t>23/12/2025</t>
         </is>
       </c>
-      <c r="F251" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G251" s="4" t="inlineStr"/>
-      <c r="H251" s="4" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I251" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F251" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G251" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H251" s="2" t="inlineStr">
+        <is>
+          <t>21/28</t>
+        </is>
+      </c>
+      <c r="I251" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -13341,7 +13357,7 @@
       </c>
       <c r="G272" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H272" s="2" t="inlineStr">
@@ -13482,7 +13498,7 @@
       </c>
       <c r="G275" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H275" s="2" t="inlineStr">
@@ -13591,45 +13607,49 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B278" s="4" t="inlineStr">
+      <c r="A278" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B278" s="2" t="inlineStr">
         <is>
           <t>B1F1</t>
         </is>
       </c>
-      <c r="C278" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D278" s="4" t="inlineStr">
+      <c r="C278" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D278" s="2" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E278" s="4" t="inlineStr">
+      <c r="E278" s="2" t="inlineStr">
         <is>
           <t>23/12/2025</t>
         </is>
       </c>
-      <c r="F278" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G278" s="4" t="inlineStr"/>
-      <c r="H278" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I278" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F278" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G278" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H278" s="2" t="inlineStr">
+        <is>
+          <t>21/26</t>
+        </is>
+      </c>
+      <c r="I278" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -14550,7 +14570,7 @@
       </c>
       <c r="G299" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H299" s="2" t="inlineStr">
@@ -14691,7 +14711,7 @@
       </c>
       <c r="G302" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H302" s="2" t="inlineStr">
@@ -14800,45 +14820,49 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B305" s="4" t="inlineStr">
+      <c r="A305" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B305" s="2" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="C305" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D305" s="4" t="inlineStr">
+      <c r="C305" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D305" s="2" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E305" s="4" t="inlineStr">
+      <c r="E305" s="2" t="inlineStr">
         <is>
           <t>23/12/2025</t>
         </is>
       </c>
-      <c r="F305" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G305" s="4" t="inlineStr"/>
-      <c r="H305" s="4" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I305" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F305" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G305" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H305" s="2" t="inlineStr">
+        <is>
+          <t>22/29</t>
+        </is>
+      </c>
+      <c r="I305" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="L10" s="5" t="inlineStr">
         <is>
-          <t>73.5%</t>
+          <t>75.2%</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18/26</t>
+          <t>25/26</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="S15" s="5" t="inlineStr">
         <is>
-          <t>81.1%</t>
+          <t>83.1%</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="S16" s="5" t="inlineStr">
         <is>
-          <t>79.4%</t>
+          <t>80.4%</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="S17" s="5" t="inlineStr">
         <is>
-          <t>65.7%</t>
+          <t>70.6%</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="S18" s="5" t="inlineStr">
         <is>
-          <t>69.8%</t>
+          <t>75.4%</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="S19" s="5" t="inlineStr">
         <is>
-          <t>74.0%</t>
+          <t>75.7%</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="S20" s="5" t="inlineStr">
         <is>
-          <t>75.6%</t>
+          <t>79.9%</t>
         </is>
       </c>
     </row>
@@ -1814,10 +1814,10 @@
         <v>13</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
@@ -1892,10 +1892,10 @@
         <v>13</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
@@ -1970,10 +1970,10 @@
         <v>13</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="S23" s="5" t="inlineStr">
         <is>
-          <t>80.6%</t>
+          <t>80.9%</t>
         </is>
       </c>
     </row>
@@ -2048,10 +2048,10 @@
         <v>12</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="S24" s="5" t="inlineStr">
         <is>
-          <t>70.5%</t>
+          <t>70.8%</t>
         </is>
       </c>
     </row>
@@ -2126,10 +2126,10 @@
         <v>13</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
@@ -2204,10 +2204,10 @@
         <v>13</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>22/27</t>
+          <t>26/27</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>6/26</t>
+          <t>20/26</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>18/26</t>
+          <t>22/26</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>5/27</t>
+          <t>21/27</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>21/27</t>
+          <t>26/27</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>8/30</t>
+          <t>14/30</t>
         </is>
       </c>
       <c r="I107" s="2" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="H118" s="2" t="inlineStr">
         <is>
-          <t>27/30</t>
+          <t>28/30</t>
         </is>
       </c>
       <c r="I118" s="2" t="inlineStr">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="H133" s="2" t="inlineStr">
         <is>
-          <t>2/23</t>
+          <t>12/23</t>
         </is>
       </c>
       <c r="I133" s="2" t="inlineStr">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7382,7 +7382,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7622,7 +7622,7 @@
       </c>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>20/23</t>
+          <t>23/23</t>
         </is>
       </c>
       <c r="I144" s="2" t="inlineStr">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8806,45 +8806,45 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B171" s="6" t="inlineStr">
+      <c r="A171" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B171" s="4" t="inlineStr">
         <is>
           <t>B1D1</t>
         </is>
       </c>
-      <c r="C171" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D171" s="6" t="inlineStr">
+      <c r="C171" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D171" s="4" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E171" s="6" t="inlineStr">
+      <c r="E171" s="4" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F171" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G171" s="6" t="inlineStr"/>
-      <c r="H171" s="6" t="inlineStr">
+      <c r="F171" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G171" s="4" t="inlineStr"/>
+      <c r="H171" s="4" t="inlineStr">
         <is>
           <t>0/23</t>
         </is>
       </c>
-      <c r="I171" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I171" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9863,7 +9863,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -10019,45 +10019,45 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B198" s="6" t="inlineStr">
+      <c r="A198" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B198" s="4" t="inlineStr">
         <is>
           <t>B1D2</t>
         </is>
       </c>
-      <c r="C198" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D198" s="6" t="inlineStr">
+      <c r="C198" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D198" s="4" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E198" s="6" t="inlineStr">
+      <c r="E198" s="4" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F198" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G198" s="6" t="inlineStr"/>
-      <c r="H198" s="6" t="inlineStr">
+      <c r="F198" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G198" s="4" t="inlineStr"/>
+      <c r="H198" s="4" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I198" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I198" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10658,7 +10658,7 @@
       </c>
       <c r="H212" s="2" t="inlineStr">
         <is>
-          <t>18/25</t>
+          <t>19/25</t>
         </is>
       </c>
       <c r="I212" s="2" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11232,45 +11232,45 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B225" s="6" t="inlineStr">
+      <c r="A225" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B225" s="4" t="inlineStr">
         <is>
           <t>B1E1</t>
         </is>
       </c>
-      <c r="C225" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D225" s="6" t="inlineStr">
+      <c r="C225" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D225" s="4" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E225" s="6" t="inlineStr">
+      <c r="E225" s="4" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F225" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G225" s="6" t="inlineStr"/>
-      <c r="H225" s="6" t="inlineStr">
+      <c r="F225" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G225" s="4" t="inlineStr"/>
+      <c r="H225" s="4" t="inlineStr">
         <is>
           <t>0/25</t>
         </is>
       </c>
-      <c r="I225" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I225" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11871,7 +11871,7 @@
       </c>
       <c r="H239" s="2" t="inlineStr">
         <is>
-          <t>16/28</t>
+          <t>17/28</t>
         </is>
       </c>
       <c r="I239" s="2" t="inlineStr">
@@ -12285,7 +12285,7 @@
       </c>
       <c r="G248" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H248" s="2" t="inlineStr">
@@ -12441,45 +12441,45 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B252" s="6" t="inlineStr">
+      <c r="A252" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B252" s="4" t="inlineStr">
         <is>
           <t>B1E2</t>
         </is>
       </c>
-      <c r="C252" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D252" s="6" t="inlineStr">
+      <c r="C252" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D252" s="4" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E252" s="6" t="inlineStr">
+      <c r="E252" s="4" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F252" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G252" s="6" t="inlineStr"/>
-      <c r="H252" s="6" t="inlineStr">
+      <c r="F252" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G252" s="4" t="inlineStr"/>
+      <c r="H252" s="4" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I252" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I252" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13498,7 +13498,7 @@
       </c>
       <c r="G275" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H275" s="2" t="inlineStr">
@@ -13654,45 +13654,45 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B279" s="6" t="inlineStr">
+      <c r="A279" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B279" s="4" t="inlineStr">
         <is>
           <t>B1F1</t>
         </is>
       </c>
-      <c r="C279" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D279" s="6" t="inlineStr">
+      <c r="C279" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D279" s="4" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E279" s="6" t="inlineStr">
+      <c r="E279" s="4" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F279" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G279" s="6" t="inlineStr"/>
-      <c r="H279" s="6" t="inlineStr">
+      <c r="F279" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G279" s="4" t="inlineStr"/>
+      <c r="H279" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I279" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I279" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14711,7 +14711,7 @@
       </c>
       <c r="G302" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H302" s="2" t="inlineStr">
@@ -14867,45 +14867,45 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B306" s="6" t="inlineStr">
+      <c r="A306" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B306" s="4" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="C306" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D306" s="6" t="inlineStr">
+      <c r="C306" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D306" s="4" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E306" s="6" t="inlineStr">
+      <c r="E306" s="4" t="inlineStr">
         <is>
           <t>24/12/2025</t>
         </is>
       </c>
-      <c r="F306" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G306" s="6" t="inlineStr"/>
-      <c r="H306" s="6" t="inlineStr">
+      <c r="F306" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G306" s="4" t="inlineStr"/>
+      <c r="H306" s="4" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I306" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I306" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6259,7 +6259,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7382,7 +7382,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -8509,7 +8509,7 @@
       </c>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9726,7 +9726,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -9867,7 +9867,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -10008,7 +10008,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -10943,7 +10943,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11225,7 +11225,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -12156,7 +12156,7 @@
       </c>
       <c r="G245" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H245" s="2" t="inlineStr">
@@ -12297,7 +12297,7 @@
       </c>
       <c r="G248" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H248" s="2" t="inlineStr">
@@ -12438,7 +12438,7 @@
       </c>
       <c r="G251" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H251" s="2" t="inlineStr">
@@ -13373,7 +13373,7 @@
       </c>
       <c r="G272" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H272" s="2" t="inlineStr">
@@ -13514,7 +13514,7 @@
       </c>
       <c r="G275" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H275" s="2" t="inlineStr">
@@ -13655,7 +13655,7 @@
       </c>
       <c r="G278" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H278" s="2" t="inlineStr">
@@ -14590,7 +14590,7 @@
       </c>
       <c r="G299" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H299" s="2" t="inlineStr">
@@ -14731,7 +14731,7 @@
       </c>
       <c r="G302" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H302" s="2" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="G305" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H305" s="2" t="inlineStr">

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="5" t="n">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>51.9%</t>
+          <t>53.8%</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="L10" s="5" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>75.2%</t>
         </is>
       </c>
     </row>
@@ -1811,22 +1811,22 @@
         <v>27</v>
       </c>
       <c r="O21" s="5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>12</v>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
-          <t>51.9%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="S21" s="5" t="inlineStr">
         <is>
-          <t>77.6%</t>
+          <t>78.0%</t>
         </is>
       </c>
     </row>
@@ -1889,22 +1889,22 @@
         <v>27</v>
       </c>
       <c r="O22" s="5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
-          <t>51.9%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="S22" s="5" t="inlineStr">
         <is>
-          <t>76.0%</t>
+          <t>76.7%</t>
         </is>
       </c>
     </row>
@@ -1967,22 +1967,22 @@
         <v>27</v>
       </c>
       <c r="O23" s="5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>12</v>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
-          <t>51.9%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="S23" s="5" t="inlineStr">
         <is>
-          <t>80.6%</t>
+          <t>80.0%</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
         <v>27</v>
       </c>
       <c r="O24" s="5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>12</v>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
-          <t>48.1%</t>
+          <t>51.9%</t>
         </is>
       </c>
       <c r="S24" s="5" t="inlineStr">
         <is>
-          <t>70.9%</t>
+          <t>71.2%</t>
         </is>
       </c>
     </row>
@@ -2123,22 +2123,22 @@
         <v>27</v>
       </c>
       <c r="O25" s="5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
-          <t>51.9%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="S25" s="5" t="inlineStr">
         <is>
-          <t>69.2%</t>
+          <t>70.3%</t>
         </is>
       </c>
     </row>
@@ -2201,22 +2201,22 @@
         <v>27</v>
       </c>
       <c r="O26" s="5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
-          <t>51.9%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="S26" s="5" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>62.3%</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6259,7 +6259,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7382,7 +7382,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -8509,7 +8509,7 @@
       </c>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -8853,45 +8853,49 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B172" s="4" t="inlineStr">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>B1D1</t>
         </is>
       </c>
-      <c r="C172" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D172" s="4" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E172" s="4" t="inlineStr">
+      <c r="E172" s="2" t="inlineStr">
         <is>
           <t>25/12/2025</t>
         </is>
       </c>
-      <c r="F172" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G172" s="4" t="inlineStr"/>
-      <c r="H172" s="4" t="inlineStr">
-        <is>
-          <t>0/23</t>
-        </is>
-      </c>
-      <c r="I172" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G172" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>19/23</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9730,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -9867,7 +9871,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -10008,7 +10012,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -10070,45 +10074,49 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B199" s="4" t="inlineStr">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>B1D2</t>
         </is>
       </c>
-      <c r="C199" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D199" s="4" t="inlineStr">
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E199" s="4" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
         <is>
           <t>25/12/2025</t>
         </is>
       </c>
-      <c r="F199" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G199" s="4" t="inlineStr"/>
-      <c r="H199" s="4" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I199" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>26/30</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10943,7 +10951,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -11084,7 +11092,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11225,7 +11233,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -11287,45 +11295,49 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B226" s="4" t="inlineStr">
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
         <is>
           <t>B1E1</t>
         </is>
       </c>
-      <c r="C226" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D226" s="4" t="inlineStr">
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E226" s="4" t="inlineStr">
+      <c r="E226" s="2" t="inlineStr">
         <is>
           <t>25/12/2025</t>
         </is>
       </c>
-      <c r="F226" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G226" s="4" t="inlineStr"/>
-      <c r="H226" s="4" t="inlineStr">
-        <is>
-          <t>0/25</t>
-        </is>
-      </c>
-      <c r="I226" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F226" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G226" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>18/25</t>
+        </is>
+      </c>
+      <c r="I226" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -12156,7 +12168,7 @@
       </c>
       <c r="G245" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H245" s="2" t="inlineStr">
@@ -12297,7 +12309,7 @@
       </c>
       <c r="G248" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H248" s="2" t="inlineStr">
@@ -12438,7 +12450,7 @@
       </c>
       <c r="G251" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H251" s="2" t="inlineStr">
@@ -12500,45 +12512,49 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B253" s="4" t="inlineStr">
+      <c r="A253" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B253" s="2" t="inlineStr">
         <is>
           <t>B1E2</t>
         </is>
       </c>
-      <c r="C253" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D253" s="4" t="inlineStr">
+      <c r="C253" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E253" s="4" t="inlineStr">
+      <c r="E253" s="2" t="inlineStr">
         <is>
           <t>25/12/2025</t>
         </is>
       </c>
-      <c r="F253" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G253" s="4" t="inlineStr"/>
-      <c r="H253" s="4" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I253" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F253" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G253" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H253" s="2" t="inlineStr">
+        <is>
+          <t>21/28</t>
+        </is>
+      </c>
+      <c r="I253" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -13373,7 +13389,7 @@
       </c>
       <c r="G272" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H272" s="2" t="inlineStr">
@@ -13514,7 +13530,7 @@
       </c>
       <c r="G275" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H275" s="2" t="inlineStr">
@@ -13655,7 +13671,7 @@
       </c>
       <c r="G278" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H278" s="2" t="inlineStr">
@@ -13717,45 +13733,49 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B280" s="4" t="inlineStr">
+      <c r="A280" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B280" s="2" t="inlineStr">
         <is>
           <t>B1F1</t>
         </is>
       </c>
-      <c r="C280" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D280" s="4" t="inlineStr">
+      <c r="C280" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D280" s="2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E280" s="4" t="inlineStr">
+      <c r="E280" s="2" t="inlineStr">
         <is>
           <t>25/12/2025</t>
         </is>
       </c>
-      <c r="F280" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G280" s="4" t="inlineStr"/>
-      <c r="H280" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I280" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F280" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G280" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H280" s="2" t="inlineStr">
+        <is>
+          <t>22/26</t>
+        </is>
+      </c>
+      <c r="I280" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -14590,7 +14610,7 @@
       </c>
       <c r="G299" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H299" s="2" t="inlineStr">
@@ -14731,7 +14751,7 @@
       </c>
       <c r="G302" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H302" s="2" t="inlineStr">
@@ -14872,7 +14892,7 @@
       </c>
       <c r="G305" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H305" s="2" t="inlineStr">
@@ -14934,45 +14954,49 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B307" s="4" t="inlineStr">
+      <c r="A307" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B307" s="2" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="C307" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D307" s="4" t="inlineStr">
+      <c r="C307" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D307" s="2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E307" s="4" t="inlineStr">
+      <c r="E307" s="2" t="inlineStr">
         <is>
           <t>25/12/2025</t>
         </is>
       </c>
-      <c r="F307" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G307" s="4" t="inlineStr"/>
-      <c r="H307" s="4" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I307" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F307" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G307" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H307" s="2" t="inlineStr">
+        <is>
+          <t>16/29</t>
+        </is>
+      </c>
+      <c r="I307" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
@@ -1346,10 +1346,10 @@
         <v>13</v>
       </c>
       <c r="P15" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R15" s="5" t="inlineStr">
         <is>
@@ -1363,45 +1363,45 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>B1A1</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E16" s="6" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F16" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G16" s="6" t="inlineStr"/>
-      <c r="H16" s="6" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr"/>
+      <c r="H16" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I16" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K16" s="5" t="inlineStr">
@@ -1424,10 +1424,10 @@
         <v>14</v>
       </c>
       <c r="P16" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R16" s="5" t="inlineStr">
         <is>
@@ -1502,10 +1502,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R17" s="5" t="inlineStr">
         <is>
@@ -1580,10 +1580,10 @@
         <v>14</v>
       </c>
       <c r="P18" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
@@ -1658,10 +1658,10 @@
         <v>14</v>
       </c>
       <c r="P19" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
@@ -1736,10 +1736,10 @@
         <v>13</v>
       </c>
       <c r="P20" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
@@ -2987,45 +2987,45 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B42" s="6" t="inlineStr">
+      <c r="A42" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>B1A2</t>
         </is>
       </c>
-      <c r="C42" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D42" s="6" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E42" s="6" t="inlineStr">
+      <c r="E42" s="4" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F42" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G42" s="6" t="inlineStr"/>
-      <c r="H42" s="6" t="inlineStr">
+      <c r="F42" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G42" s="4" t="inlineStr"/>
+      <c r="H42" s="4" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I42" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I42" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -4161,45 +4161,45 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B68" s="6" t="inlineStr">
+      <c r="A68" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="inlineStr">
         <is>
           <t>B1B1</t>
         </is>
       </c>
-      <c r="C68" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D68" s="6" t="inlineStr">
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D68" s="4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E68" s="6" t="inlineStr">
+      <c r="E68" s="4" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F68" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G68" s="6" t="inlineStr"/>
-      <c r="H68" s="6" t="inlineStr">
+      <c r="F68" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G68" s="4" t="inlineStr"/>
+      <c r="H68" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I68" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I68" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5335,45 +5335,45 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B94" s="6" t="inlineStr">
+      <c r="A94" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B94" s="4" t="inlineStr">
         <is>
           <t>B1B2</t>
         </is>
       </c>
-      <c r="C94" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D94" s="6" t="inlineStr">
+      <c r="C94" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D94" s="4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E94" s="6" t="inlineStr">
+      <c r="E94" s="4" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F94" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G94" s="6" t="inlineStr"/>
-      <c r="H94" s="6" t="inlineStr">
+      <c r="F94" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G94" s="4" t="inlineStr"/>
+      <c r="H94" s="4" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I94" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I94" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6509,45 +6509,45 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B120" s="6" t="inlineStr">
+      <c r="A120" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B120" s="4" t="inlineStr">
         <is>
           <t>B1C1</t>
         </is>
       </c>
-      <c r="C120" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D120" s="6" t="inlineStr">
+      <c r="C120" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D120" s="4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E120" s="6" t="inlineStr">
+      <c r="E120" s="4" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F120" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G120" s="6" t="inlineStr"/>
-      <c r="H120" s="6" t="inlineStr">
+      <c r="F120" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G120" s="4" t="inlineStr"/>
+      <c r="H120" s="4" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I120" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I120" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7679,45 +7679,45 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B146" s="6" t="inlineStr">
+      <c r="A146" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B146" s="4" t="inlineStr">
         <is>
           <t>B1C2</t>
         </is>
       </c>
-      <c r="C146" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D146" s="6" t="inlineStr">
+      <c r="C146" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D146" s="4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E146" s="6" t="inlineStr">
+      <c r="E146" s="4" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F146" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G146" s="6" t="inlineStr"/>
-      <c r="H146" s="6" t="inlineStr">
+      <c r="F146" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G146" s="4" t="inlineStr"/>
+      <c r="H146" s="4" t="inlineStr">
         <is>
           <t>0/23</t>
         </is>
       </c>
-      <c r="I146" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I146" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="5" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -981,7 +981,7 @@
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>53.8%</t>
+          <t>55.7%</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="L10" s="5" t="inlineStr">
         <is>
-          <t>75.2%</t>
+          <t>75.4%</t>
         </is>
       </c>
     </row>
@@ -1343,65 +1343,69 @@
         <v>26</v>
       </c>
       <c r="O15" s="5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P15" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>11</v>
       </c>
       <c r="R15" s="5" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>53.8%</t>
         </is>
       </c>
       <c r="S15" s="5" t="inlineStr">
         <is>
-          <t>83.1%</t>
+          <t>83.2%</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>B1A1</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G16" s="4" t="inlineStr"/>
-      <c r="H16" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I16" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>22/26</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
       <c r="K16" s="5" t="inlineStr">
@@ -1421,22 +1425,22 @@
         <v>26</v>
       </c>
       <c r="O16" s="5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P16" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
       </c>
       <c r="R16" s="5" t="inlineStr">
         <is>
-          <t>53.8%</t>
+          <t>57.7%</t>
         </is>
       </c>
       <c r="S16" s="5" t="inlineStr">
         <is>
-          <t>80.4%</t>
+          <t>81.0%</t>
         </is>
       </c>
     </row>
@@ -1499,22 +1503,22 @@
         <v>26</v>
       </c>
       <c r="O17" s="5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P17" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
       </c>
       <c r="R17" s="5" t="inlineStr">
         <is>
-          <t>53.8%</t>
+          <t>57.7%</t>
         </is>
       </c>
       <c r="S17" s="5" t="inlineStr">
         <is>
-          <t>70.6%</t>
+          <t>71.3%</t>
         </is>
       </c>
     </row>
@@ -1577,22 +1581,22 @@
         <v>26</v>
       </c>
       <c r="O18" s="5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P18" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>11</v>
       </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
-          <t>53.8%</t>
+          <t>57.7%</t>
         </is>
       </c>
       <c r="S18" s="5" t="inlineStr">
         <is>
-          <t>75.4%</t>
+          <t>75.6%</t>
         </is>
       </c>
     </row>
@@ -1655,22 +1659,22 @@
         <v>26</v>
       </c>
       <c r="O19" s="5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P19" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
-          <t>53.8%</t>
+          <t>57.7%</t>
         </is>
       </c>
       <c r="S19" s="5" t="inlineStr">
         <is>
-          <t>75.7%</t>
+          <t>75.6%</t>
         </is>
       </c>
     </row>
@@ -1733,22 +1737,22 @@
         <v>26</v>
       </c>
       <c r="O20" s="5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P20" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>53.8%</t>
         </is>
       </c>
       <c r="S20" s="5" t="inlineStr">
         <is>
-          <t>79.9%</t>
+          <t>79.8%</t>
         </is>
       </c>
     </row>
@@ -2987,45 +2991,49 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>B1A2</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E42" s="4" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F42" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G42" s="4" t="inlineStr"/>
-      <c r="H42" s="4" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I42" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>24/27</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -4161,45 +4169,49 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B68" s="4" t="inlineStr">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>B1B1</t>
         </is>
       </c>
-      <c r="C68" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D68" s="4" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E68" s="4" t="inlineStr">
+      <c r="E68" s="2" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F68" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G68" s="4" t="inlineStr"/>
-      <c r="H68" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I68" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>21/26</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -5335,45 +5347,49 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B94" s="4" t="inlineStr">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>B1B2</t>
         </is>
       </c>
-      <c r="C94" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D94" s="4" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E94" s="4" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F94" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G94" s="4" t="inlineStr"/>
-      <c r="H94" s="4" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I94" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>21/27</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -6509,45 +6525,49 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B120" s="4" t="inlineStr">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>B1C1</t>
         </is>
       </c>
-      <c r="C120" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D120" s="4" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E120" s="4" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F120" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G120" s="4" t="inlineStr"/>
-      <c r="H120" s="4" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I120" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>22/30</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -7679,45 +7699,49 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B146" s="4" t="inlineStr">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
         <is>
           <t>B1C2</t>
         </is>
       </c>
-      <c r="C146" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D146" s="4" t="inlineStr">
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E146" s="4" t="inlineStr">
+      <c r="E146" s="2" t="inlineStr">
         <is>
           <t>27/12/2025</t>
         </is>
       </c>
-      <c r="F146" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G146" s="4" t="inlineStr"/>
-      <c r="H146" s="4" t="inlineStr">
-        <is>
-          <t>0/23</t>
-        </is>
-      </c>
-      <c r="I146" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>18/23</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5062,7 +5062,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -6197,7 +6197,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6244,7 +6244,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -7375,7 +7375,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7422,7 +7422,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -8698,7 +8698,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9778,7 +9778,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -9919,7 +9919,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -11140,7 +11140,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11281,7 +11281,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -12216,7 +12216,7 @@
       </c>
       <c r="G245" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H245" s="2" t="inlineStr">
@@ -12357,7 +12357,7 @@
       </c>
       <c r="G248" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H248" s="2" t="inlineStr">
@@ -12498,7 +12498,7 @@
       </c>
       <c r="G251" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H251" s="2" t="inlineStr">
@@ -13437,7 +13437,7 @@
       </c>
       <c r="G272" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H272" s="2" t="inlineStr">
@@ -13578,7 +13578,7 @@
       </c>
       <c r="G275" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H275" s="2" t="inlineStr">
@@ -13719,7 +13719,7 @@
       </c>
       <c r="G278" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H278" s="2" t="inlineStr">
@@ -14658,7 +14658,7 @@
       </c>
       <c r="G299" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H299" s="2" t="inlineStr">
@@ -14799,7 +14799,7 @@
       </c>
       <c r="G302" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H302" s="2" t="inlineStr">
@@ -14940,7 +14940,7 @@
       </c>
       <c r="G305" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H305" s="2" t="inlineStr">

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -1346,10 +1346,10 @@
         <v>15</v>
       </c>
       <c r="P15" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R15" s="5" t="inlineStr">
         <is>
@@ -1428,10 +1428,10 @@
         <v>16</v>
       </c>
       <c r="P16" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R16" s="5" t="inlineStr">
         <is>
@@ -1510,10 +1510,10 @@
         <v>16</v>
       </c>
       <c r="P17" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R17" s="5" t="inlineStr">
         <is>
@@ -1527,45 +1527,45 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>B1A1</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D18" s="6" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E18" s="6" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G18" s="6" t="inlineStr"/>
-      <c r="H18" s="6" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr"/>
+      <c r="H18" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I18" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I18" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K18" s="5" t="inlineStr">
@@ -1588,10 +1588,10 @@
         <v>16</v>
       </c>
       <c r="P18" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
@@ -1666,10 +1666,10 @@
         <v>16</v>
       </c>
       <c r="P19" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
@@ -1744,10 +1744,10 @@
         <v>15</v>
       </c>
       <c r="P20" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
@@ -3089,45 +3089,45 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B44" s="6" t="inlineStr">
+      <c r="A44" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>B1A2</t>
         </is>
       </c>
-      <c r="C44" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D44" s="6" t="inlineStr">
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E44" s="6" t="inlineStr">
+      <c r="E44" s="4" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F44" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G44" s="6" t="inlineStr"/>
-      <c r="H44" s="6" t="inlineStr">
+      <c r="F44" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G44" s="4" t="inlineStr"/>
+      <c r="H44" s="4" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I44" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I44" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -4271,45 +4271,45 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B70" s="6" t="inlineStr">
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="inlineStr">
         <is>
           <t>B1B1</t>
         </is>
       </c>
-      <c r="C70" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D70" s="6" t="inlineStr">
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D70" s="4" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E70" s="6" t="inlineStr">
+      <c r="E70" s="4" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F70" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G70" s="6" t="inlineStr"/>
-      <c r="H70" s="6" t="inlineStr">
+      <c r="F70" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G70" s="4" t="inlineStr"/>
+      <c r="H70" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I70" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I70" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5453,45 +5453,45 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B96" s="6" t="inlineStr">
+      <c r="A96" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B96" s="4" t="inlineStr">
         <is>
           <t>B1B2</t>
         </is>
       </c>
-      <c r="C96" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D96" s="6" t="inlineStr">
+      <c r="C96" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D96" s="4" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E96" s="6" t="inlineStr">
+      <c r="E96" s="4" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F96" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G96" s="6" t="inlineStr"/>
-      <c r="H96" s="6" t="inlineStr">
+      <c r="F96" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G96" s="4" t="inlineStr"/>
+      <c r="H96" s="4" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I96" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I96" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6635,45 +6635,45 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B122" s="6" t="inlineStr">
+      <c r="A122" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B122" s="4" t="inlineStr">
         <is>
           <t>B1C1</t>
         </is>
       </c>
-      <c r="C122" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D122" s="6" t="inlineStr">
+      <c r="C122" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D122" s="4" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E122" s="6" t="inlineStr">
+      <c r="E122" s="4" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F122" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G122" s="6" t="inlineStr"/>
-      <c r="H122" s="6" t="inlineStr">
+      <c r="F122" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G122" s="4" t="inlineStr"/>
+      <c r="H122" s="4" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I122" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I122" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7813,45 +7813,45 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B148" s="6" t="inlineStr">
+      <c r="A148" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B148" s="4" t="inlineStr">
         <is>
           <t>B1C2</t>
         </is>
       </c>
-      <c r="C148" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D148" s="6" t="inlineStr">
+      <c r="C148" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D148" s="4" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E148" s="6" t="inlineStr">
+      <c r="E148" s="4" t="inlineStr">
         <is>
           <t>29/12/2025</t>
         </is>
       </c>
-      <c r="F148" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G148" s="6" t="inlineStr"/>
-      <c r="H148" s="6" t="inlineStr">
+      <c r="F148" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G148" s="4" t="inlineStr"/>
+      <c r="H148" s="4" t="inlineStr">
         <is>
           <t>0/23</t>
         </is>
       </c>
-      <c r="I148" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I148" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6636,7 +6636,7 @@
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7442,7 +7442,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -7818,7 +7818,7 @@
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -8722,7 +8722,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -11164,7 +11164,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -12381,7 +12381,7 @@
       </c>
       <c r="G248" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H248" s="2" t="inlineStr">
@@ -13602,7 +13602,7 @@
       </c>
       <c r="G275" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H275" s="2" t="inlineStr">
@@ -14823,7 +14823,7 @@
       </c>
       <c r="G302" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H302" s="2" t="inlineStr">

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -8581,7 +8581,7 @@
       </c>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -8863,7 +8863,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9802,7 +9802,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -10084,7 +10084,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -11023,7 +11023,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="G245" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H245" s="2" t="inlineStr">
@@ -12522,7 +12522,7 @@
       </c>
       <c r="G251" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H251" s="2" t="inlineStr">
@@ -13461,7 +13461,7 @@
       </c>
       <c r="G272" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H272" s="2" t="inlineStr">
@@ -13743,7 +13743,7 @@
       </c>
       <c r="G278" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H278" s="2" t="inlineStr">
@@ -14682,7 +14682,7 @@
       </c>
       <c r="G299" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H299" s="2" t="inlineStr">
@@ -14964,7 +14964,7 @@
       </c>
       <c r="G305" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H305" s="2" t="inlineStr">

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -1826,10 +1826,10 @@
         <v>15</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
@@ -1904,10 +1904,10 @@
         <v>15</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
@@ -1982,10 +1982,10 @@
         <v>15</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
@@ -2060,10 +2060,10 @@
         <v>14</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
@@ -2138,10 +2138,10 @@
         <v>15</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
@@ -2216,10 +2216,10 @@
         <v>15</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
@@ -8972,45 +8972,45 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B173" s="6" t="inlineStr">
+      <c r="A173" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B173" s="4" t="inlineStr">
         <is>
           <t>B1D1</t>
         </is>
       </c>
-      <c r="C173" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D173" s="6" t="inlineStr">
+      <c r="C173" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D173" s="4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E173" s="6" t="inlineStr">
+      <c r="E173" s="4" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F173" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G173" s="6" t="inlineStr"/>
-      <c r="H173" s="6" t="inlineStr">
+      <c r="F173" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G173" s="4" t="inlineStr"/>
+      <c r="H173" s="4" t="inlineStr">
         <is>
           <t>0/23</t>
         </is>
       </c>
-      <c r="I173" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I173" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10193,45 +10193,45 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B200" s="6" t="inlineStr">
+      <c r="A200" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B200" s="4" t="inlineStr">
         <is>
           <t>B1D2</t>
         </is>
       </c>
-      <c r="C200" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D200" s="6" t="inlineStr">
+      <c r="C200" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D200" s="4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E200" s="6" t="inlineStr">
+      <c r="E200" s="4" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F200" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G200" s="6" t="inlineStr"/>
-      <c r="H200" s="6" t="inlineStr">
+      <c r="F200" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G200" s="4" t="inlineStr"/>
+      <c r="H200" s="4" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I200" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I200" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11414,45 +11414,45 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B227" s="6" t="inlineStr">
+      <c r="A227" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B227" s="4" t="inlineStr">
         <is>
           <t>B1E1</t>
         </is>
       </c>
-      <c r="C227" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D227" s="6" t="inlineStr">
+      <c r="C227" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D227" s="4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E227" s="6" t="inlineStr">
+      <c r="E227" s="4" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F227" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G227" s="6" t="inlineStr"/>
-      <c r="H227" s="6" t="inlineStr">
+      <c r="F227" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G227" s="4" t="inlineStr"/>
+      <c r="H227" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I227" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I227" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -12631,45 +12631,45 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B254" s="6" t="inlineStr">
+      <c r="A254" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B254" s="4" t="inlineStr">
         <is>
           <t>B1E2</t>
         </is>
       </c>
-      <c r="C254" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D254" s="6" t="inlineStr">
+      <c r="C254" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D254" s="4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E254" s="6" t="inlineStr">
+      <c r="E254" s="4" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F254" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G254" s="6" t="inlineStr"/>
-      <c r="H254" s="6" t="inlineStr">
+      <c r="F254" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G254" s="4" t="inlineStr"/>
+      <c r="H254" s="4" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I254" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I254" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13852,45 +13852,45 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B281" s="6" t="inlineStr">
+      <c r="A281" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B281" s="4" t="inlineStr">
         <is>
           <t>B1F1</t>
         </is>
       </c>
-      <c r="C281" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D281" s="6" t="inlineStr">
+      <c r="C281" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D281" s="4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E281" s="6" t="inlineStr">
+      <c r="E281" s="4" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F281" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G281" s="6" t="inlineStr"/>
-      <c r="H281" s="6" t="inlineStr">
+      <c r="F281" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G281" s="4" t="inlineStr"/>
+      <c r="H281" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I281" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I281" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15073,45 +15073,45 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B308" s="6" t="inlineStr">
+      <c r="A308" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B308" s="4" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="C308" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D308" s="6" t="inlineStr">
+      <c r="C308" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D308" s="4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E308" s="6" t="inlineStr">
+      <c r="E308" s="4" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F308" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G308" s="6" t="inlineStr"/>
-      <c r="H308" s="6" t="inlineStr">
+      <c r="F308" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G308" s="4" t="inlineStr"/>
+      <c r="H308" s="4" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I308" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I308" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="5" t="n">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -981,7 +981,7 @@
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>59.4%</t>
+          <t>61.3%</t>
         </is>
       </c>
     </row>
@@ -1823,17 +1823,17 @@
         <v>27</v>
       </c>
       <c r="O21" s="5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>11</v>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>59.3%</t>
         </is>
       </c>
       <c r="S21" s="5" t="inlineStr">
@@ -1901,22 +1901,22 @@
         <v>27</v>
       </c>
       <c r="O22" s="5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>59.3%</t>
         </is>
       </c>
       <c r="S22" s="5" t="inlineStr">
         <is>
-          <t>76.7%</t>
+          <t>77.5%</t>
         </is>
       </c>
     </row>
@@ -1979,17 +1979,17 @@
         <v>27</v>
       </c>
       <c r="O23" s="5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>11</v>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>59.3%</t>
         </is>
       </c>
       <c r="S23" s="5" t="inlineStr">
@@ -2057,22 +2057,22 @@
         <v>27</v>
       </c>
       <c r="O24" s="5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
-          <t>51.9%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="S24" s="5" t="inlineStr">
         <is>
-          <t>71.2%</t>
+          <t>71.7%</t>
         </is>
       </c>
     </row>
@@ -2135,22 +2135,22 @@
         <v>27</v>
       </c>
       <c r="O25" s="5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>59.3%</t>
         </is>
       </c>
       <c r="S25" s="5" t="inlineStr">
         <is>
-          <t>70.3%</t>
+          <t>70.4%</t>
         </is>
       </c>
     </row>
@@ -2213,22 +2213,22 @@
         <v>27</v>
       </c>
       <c r="O26" s="5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>59.3%</t>
         </is>
       </c>
       <c r="S26" s="5" t="inlineStr">
         <is>
-          <t>62.3%</t>
+          <t>62.5%</t>
         </is>
       </c>
     </row>
@@ -8972,45 +8972,49 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B173" s="4" t="inlineStr">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
         <is>
           <t>B1D1</t>
         </is>
       </c>
-      <c r="C173" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D173" s="4" t="inlineStr">
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E173" s="4" t="inlineStr">
+      <c r="E173" s="2" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F173" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G173" s="4" t="inlineStr"/>
-      <c r="H173" s="4" t="inlineStr">
-        <is>
-          <t>0/23</t>
-        </is>
-      </c>
-      <c r="I173" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G173" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>18/23</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10193,45 +10197,49 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B200" s="4" t="inlineStr">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
         <is>
           <t>B1D2</t>
         </is>
       </c>
-      <c r="C200" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D200" s="4" t="inlineStr">
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E200" s="4" t="inlineStr">
+      <c r="E200" s="2" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F200" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G200" s="4" t="inlineStr"/>
-      <c r="H200" s="4" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I200" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
+        <is>
+          <t>27/30</t>
+        </is>
+      </c>
+      <c r="I200" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -11414,45 +11422,49 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B227" s="4" t="inlineStr">
+      <c r="A227" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>B1E1</t>
         </is>
       </c>
-      <c r="C227" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D227" s="4" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E227" s="4" t="inlineStr">
+      <c r="E227" s="2" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F227" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G227" s="4" t="inlineStr"/>
-      <c r="H227" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I227" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
+        <is>
+          <t>21/26</t>
+        </is>
+      </c>
+      <c r="I227" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -12631,45 +12643,49 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B254" s="4" t="inlineStr">
+      <c r="A254" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>B1E2</t>
         </is>
       </c>
-      <c r="C254" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D254" s="4" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E254" s="4" t="inlineStr">
+      <c r="E254" s="2" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F254" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G254" s="4" t="inlineStr"/>
-      <c r="H254" s="4" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I254" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F254" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G254" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>22/28</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -13852,45 +13868,49 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B281" s="4" t="inlineStr">
+      <c r="A281" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B281" s="2" t="inlineStr">
         <is>
           <t>B1F1</t>
         </is>
       </c>
-      <c r="C281" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D281" s="4" t="inlineStr">
+      <c r="C281" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D281" s="2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E281" s="4" t="inlineStr">
+      <c r="E281" s="2" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F281" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G281" s="4" t="inlineStr"/>
-      <c r="H281" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I281" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F281" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G281" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H281" s="2" t="inlineStr">
+        <is>
+          <t>19/26</t>
+        </is>
+      </c>
+      <c r="I281" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -15073,45 +15093,49 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B308" s="4" t="inlineStr">
+      <c r="A308" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B308" s="2" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="C308" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D308" s="4" t="inlineStr">
+      <c r="C308" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D308" s="2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E308" s="4" t="inlineStr">
+      <c r="E308" s="2" t="inlineStr">
         <is>
           <t>30/12/2025</t>
         </is>
       </c>
-      <c r="F308" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G308" s="4" t="inlineStr"/>
-      <c r="H308" s="4" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I308" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F308" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G308" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H308" s="2" t="inlineStr">
+        <is>
+          <t>19/29</t>
+        </is>
+      </c>
+      <c r="I308" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1826,10 +1826,10 @@
         <v>16</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
@@ -1904,10 +1904,10 @@
         <v>16</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
@@ -1982,10 +1982,10 @@
         <v>16</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
@@ -2060,10 +2060,10 @@
         <v>15</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
@@ -2138,10 +2138,10 @@
         <v>16</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
@@ -2216,10 +2216,10 @@
         <v>16</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -9019,45 +9019,45 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B174" s="6" t="inlineStr">
+      <c r="A174" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B174" s="4" t="inlineStr">
         <is>
           <t>B1D1</t>
         </is>
       </c>
-      <c r="C174" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D174" s="6" t="inlineStr">
+      <c r="C174" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D174" s="4" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E174" s="6" t="inlineStr">
+      <c r="E174" s="4" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F174" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G174" s="6" t="inlineStr"/>
-      <c r="H174" s="6" t="inlineStr">
+      <c r="F174" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G174" s="4" t="inlineStr"/>
+      <c r="H174" s="4" t="inlineStr">
         <is>
           <t>0/23</t>
         </is>
       </c>
-      <c r="I174" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I174" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10244,45 +10244,45 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B201" s="6" t="inlineStr">
+      <c r="A201" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B201" s="4" t="inlineStr">
         <is>
           <t>B1D2</t>
         </is>
       </c>
-      <c r="C201" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D201" s="6" t="inlineStr">
+      <c r="C201" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D201" s="4" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E201" s="6" t="inlineStr">
+      <c r="E201" s="4" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F201" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G201" s="6" t="inlineStr"/>
-      <c r="H201" s="6" t="inlineStr">
+      <c r="F201" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G201" s="4" t="inlineStr"/>
+      <c r="H201" s="4" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I201" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I201" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11469,45 +11469,45 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B228" s="6" t="inlineStr">
+      <c r="A228" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B228" s="4" t="inlineStr">
         <is>
           <t>B1E1</t>
         </is>
       </c>
-      <c r="C228" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D228" s="6" t="inlineStr">
+      <c r="C228" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D228" s="4" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E228" s="6" t="inlineStr">
+      <c r="E228" s="4" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F228" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G228" s="6" t="inlineStr"/>
-      <c r="H228" s="6" t="inlineStr">
+      <c r="F228" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G228" s="4" t="inlineStr"/>
+      <c r="H228" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I228" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I228" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -12690,45 +12690,45 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B255" s="6" t="inlineStr">
+      <c r="A255" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B255" s="4" t="inlineStr">
         <is>
           <t>B1E2</t>
         </is>
       </c>
-      <c r="C255" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D255" s="6" t="inlineStr">
+      <c r="C255" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D255" s="4" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E255" s="6" t="inlineStr">
+      <c r="E255" s="4" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F255" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G255" s="6" t="inlineStr"/>
-      <c r="H255" s="6" t="inlineStr">
+      <c r="F255" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G255" s="4" t="inlineStr"/>
+      <c r="H255" s="4" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I255" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I255" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13915,45 +13915,45 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B282" s="6" t="inlineStr">
+      <c r="A282" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B282" s="4" t="inlineStr">
         <is>
           <t>B1F1</t>
         </is>
       </c>
-      <c r="C282" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D282" s="6" t="inlineStr">
+      <c r="C282" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D282" s="4" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E282" s="6" t="inlineStr">
+      <c r="E282" s="4" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F282" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G282" s="6" t="inlineStr"/>
-      <c r="H282" s="6" t="inlineStr">
+      <c r="F282" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G282" s="4" t="inlineStr"/>
+      <c r="H282" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I282" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I282" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15140,45 +15140,45 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B309" s="6" t="inlineStr">
+      <c r="A309" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B309" s="4" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="C309" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D309" s="6" t="inlineStr">
+      <c r="C309" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D309" s="4" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E309" s="6" t="inlineStr">
+      <c r="E309" s="4" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F309" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G309" s="6" t="inlineStr"/>
-      <c r="H309" s="6" t="inlineStr">
+      <c r="F309" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G309" s="4" t="inlineStr"/>
+      <c r="H309" s="4" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I309" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I309" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="5" t="n">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -981,7 +981,7 @@
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>61.3%</t>
+          <t>63.2%</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="L10" s="5" t="inlineStr">
         <is>
-          <t>75.7%</t>
+          <t>75.8%</t>
         </is>
       </c>
     </row>
@@ -1823,22 +1823,22 @@
         <v>27</v>
       </c>
       <c r="O21" s="5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>10</v>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
-          <t>59.3%</t>
+          <t>63.0%</t>
         </is>
       </c>
       <c r="S21" s="5" t="inlineStr">
         <is>
-          <t>78.0%</t>
+          <t>78.3%</t>
         </is>
       </c>
     </row>
@@ -1901,22 +1901,22 @@
         <v>27</v>
       </c>
       <c r="O22" s="5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
-          <t>59.3%</t>
+          <t>63.0%</t>
         </is>
       </c>
       <c r="S22" s="5" t="inlineStr">
         <is>
-          <t>77.5%</t>
+          <t>77.1%</t>
         </is>
       </c>
     </row>
@@ -1979,22 +1979,22 @@
         <v>27</v>
       </c>
       <c r="O23" s="5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
-          <t>59.3%</t>
+          <t>63.0%</t>
         </is>
       </c>
       <c r="S23" s="5" t="inlineStr">
         <is>
-          <t>80.3%</t>
+          <t>79.9%</t>
         </is>
       </c>
     </row>
@@ -2057,22 +2057,22 @@
         <v>27</v>
       </c>
       <c r="O24" s="5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>10</v>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>59.3%</t>
         </is>
       </c>
       <c r="S24" s="5" t="inlineStr">
         <is>
-          <t>71.7%</t>
+          <t>72.5%</t>
         </is>
       </c>
     </row>
@@ -2135,22 +2135,22 @@
         <v>27</v>
       </c>
       <c r="O25" s="5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
-          <t>59.3%</t>
+          <t>63.0%</t>
         </is>
       </c>
       <c r="S25" s="5" t="inlineStr">
         <is>
-          <t>70.4%</t>
+          <t>70.8%</t>
         </is>
       </c>
     </row>
@@ -2213,22 +2213,22 @@
         <v>27</v>
       </c>
       <c r="O26" s="5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
-          <t>59.3%</t>
+          <t>63.0%</t>
         </is>
       </c>
       <c r="S26" s="5" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>63.9%</t>
         </is>
       </c>
     </row>
@@ -9019,45 +9019,49 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B174" s="4" t="inlineStr">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>B1D1</t>
         </is>
       </c>
-      <c r="C174" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D174" s="4" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E174" s="4" t="inlineStr">
+      <c r="E174" s="2" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F174" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G174" s="4" t="inlineStr"/>
-      <c r="H174" s="4" t="inlineStr">
-        <is>
-          <t>0/23</t>
-        </is>
-      </c>
-      <c r="I174" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G174" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>19/23</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10244,45 +10248,49 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B201" s="4" t="inlineStr">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
         <is>
           <t>B1D2</t>
         </is>
       </c>
-      <c r="C201" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D201" s="4" t="inlineStr">
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E201" s="4" t="inlineStr">
+      <c r="E201" s="2" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F201" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G201" s="4" t="inlineStr"/>
-      <c r="H201" s="4" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I201" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
+        <is>
+          <t>21/30</t>
+        </is>
+      </c>
+      <c r="I201" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -11469,45 +11477,49 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B228" s="4" t="inlineStr">
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
         <is>
           <t>B1E1</t>
         </is>
       </c>
-      <c r="C228" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D228" s="4" t="inlineStr">
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E228" s="4" t="inlineStr">
+      <c r="E228" s="2" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F228" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G228" s="4" t="inlineStr"/>
-      <c r="H228" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I228" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
+        <is>
+          <t>19/26</t>
+        </is>
+      </c>
+      <c r="I228" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -12690,45 +12702,49 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B255" s="4" t="inlineStr">
+      <c r="A255" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B255" s="2" t="inlineStr">
         <is>
           <t>B1E2</t>
         </is>
       </c>
-      <c r="C255" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D255" s="4" t="inlineStr">
+      <c r="C255" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E255" s="4" t="inlineStr">
+      <c r="E255" s="2" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F255" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G255" s="4" t="inlineStr"/>
-      <c r="H255" s="4" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I255" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H255" s="2" t="inlineStr">
+        <is>
+          <t>24/28</t>
+        </is>
+      </c>
+      <c r="I255" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -13915,45 +13931,49 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B282" s="4" t="inlineStr">
+      <c r="A282" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B282" s="2" t="inlineStr">
         <is>
           <t>B1F1</t>
         </is>
       </c>
-      <c r="C282" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D282" s="4" t="inlineStr">
+      <c r="C282" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D282" s="2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E282" s="4" t="inlineStr">
+      <c r="E282" s="2" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F282" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G282" s="4" t="inlineStr"/>
-      <c r="H282" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I282" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F282" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G282" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H282" s="2" t="inlineStr">
+        <is>
+          <t>20/26</t>
+        </is>
+      </c>
+      <c r="I282" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -15140,45 +15160,49 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B309" s="4" t="inlineStr">
+      <c r="A309" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B309" s="2" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="C309" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D309" s="4" t="inlineStr">
+      <c r="C309" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D309" s="2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E309" s="4" t="inlineStr">
+      <c r="E309" s="2" t="inlineStr">
         <is>
           <t>31/12/2025</t>
         </is>
       </c>
-      <c r="F309" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G309" s="4" t="inlineStr"/>
-      <c r="H309" s="4" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I309" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F309" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G309" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H309" s="2" t="inlineStr">
+        <is>
+          <t>25/29</t>
+        </is>
+      </c>
+      <c r="I309" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6636,7 +6636,7 @@
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7442,7 +7442,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -7818,7 +7818,7 @@
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -8581,7 +8581,7 @@
       </c>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -8722,7 +8722,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8863,7 +8863,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9051,7 +9051,7 @@
       </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -9951,7 +9951,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -10092,7 +10092,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -10280,7 +10280,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -11180,7 +11180,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11321,7 +11321,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -11509,7 +11509,7 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
@@ -12264,7 +12264,7 @@
       </c>
       <c r="G245" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H245" s="2" t="inlineStr">
@@ -12405,7 +12405,7 @@
       </c>
       <c r="G248" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H248" s="2" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="G251" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H251" s="2" t="inlineStr">
@@ -12734,7 +12734,7 @@
       </c>
       <c r="G255" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H255" s="2" t="inlineStr">
@@ -13493,7 +13493,7 @@
       </c>
       <c r="G272" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H272" s="2" t="inlineStr">
@@ -13634,7 +13634,7 @@
       </c>
       <c r="G275" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H275" s="2" t="inlineStr">
@@ -13775,7 +13775,7 @@
       </c>
       <c r="G278" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H278" s="2" t="inlineStr">
@@ -13963,7 +13963,7 @@
       </c>
       <c r="G282" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H282" s="2" t="inlineStr">
@@ -14722,7 +14722,7 @@
       </c>
       <c r="G299" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H299" s="2" t="inlineStr">
@@ -14863,7 +14863,7 @@
       </c>
       <c r="G302" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H302" s="2" t="inlineStr">
@@ -15004,7 +15004,7 @@
       </c>
       <c r="G305" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H305" s="2" t="inlineStr">
@@ -15192,7 +15192,7 @@
       </c>
       <c r="G309" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H309" s="2" t="inlineStr">

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6636,7 +6636,7 @@
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7442,7 +7442,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -7818,7 +7818,7 @@
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -8581,7 +8581,7 @@
       </c>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -8722,7 +8722,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8863,7 +8863,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9051,7 +9051,7 @@
       </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -9951,7 +9951,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -10092,7 +10092,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -10280,7 +10280,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -11180,7 +11180,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11321,7 +11321,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -11509,7 +11509,7 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
@@ -12264,7 +12264,7 @@
       </c>
       <c r="G245" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H245" s="2" t="inlineStr">
@@ -12405,7 +12405,7 @@
       </c>
       <c r="G248" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H248" s="2" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="G251" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H251" s="2" t="inlineStr">
@@ -12734,7 +12734,7 @@
       </c>
       <c r="G255" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H255" s="2" t="inlineStr">
@@ -13493,7 +13493,7 @@
       </c>
       <c r="G272" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H272" s="2" t="inlineStr">
@@ -13634,7 +13634,7 @@
       </c>
       <c r="G275" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H275" s="2" t="inlineStr">
@@ -13775,7 +13775,7 @@
       </c>
       <c r="G278" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H278" s="2" t="inlineStr">
@@ -13963,7 +13963,7 @@
       </c>
       <c r="G282" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H282" s="2" t="inlineStr">
@@ -14722,7 +14722,7 @@
       </c>
       <c r="G299" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H299" s="2" t="inlineStr">
@@ -14863,7 +14863,7 @@
       </c>
       <c r="G302" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H302" s="2" t="inlineStr">
@@ -15004,7 +15004,7 @@
       </c>
       <c r="G305" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H305" s="2" t="inlineStr">
@@ -15192,7 +15192,7 @@
       </c>
       <c r="G309" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H309" s="2" t="inlineStr">

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -1559,7 +1559,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -8581,7 +8581,7 @@
       </c>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -8722,7 +8722,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8863,7 +8863,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9051,7 +9051,7 @@
       </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -9951,7 +9951,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -10092,7 +10092,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -10280,7 +10280,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -11180,7 +11180,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11321,7 +11321,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -11509,7 +11509,7 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
@@ -12264,7 +12264,7 @@
       </c>
       <c r="G245" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H245" s="2" t="inlineStr">
@@ -12405,7 +12405,7 @@
       </c>
       <c r="G248" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H248" s="2" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="G251" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H251" s="2" t="inlineStr">
@@ -12734,7 +12734,7 @@
       </c>
       <c r="G255" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H255" s="2" t="inlineStr">
@@ -13493,7 +13493,7 @@
       </c>
       <c r="G272" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H272" s="2" t="inlineStr">
@@ -13634,7 +13634,7 @@
       </c>
       <c r="G275" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H275" s="2" t="inlineStr">
@@ -13775,7 +13775,7 @@
       </c>
       <c r="G278" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H278" s="2" t="inlineStr">
@@ -13963,7 +13963,7 @@
       </c>
       <c r="G282" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H282" s="2" t="inlineStr">
@@ -14722,7 +14722,7 @@
       </c>
       <c r="G299" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H299" s="2" t="inlineStr">
@@ -14863,7 +14863,7 @@
       </c>
       <c r="G302" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H302" s="2" t="inlineStr">
@@ -15004,7 +15004,7 @@
       </c>
       <c r="G305" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H305" s="2" t="inlineStr">
@@ -15192,7 +15192,7 @@
       </c>
       <c r="G309" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H309" s="2" t="inlineStr">

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1346,10 +1346,10 @@
         <v>16</v>
       </c>
       <c r="P15" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R15" s="5" t="inlineStr">
         <is>
@@ -1428,10 +1428,10 @@
         <v>17</v>
       </c>
       <c r="P16" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R16" s="5" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1510,10 +1510,10 @@
         <v>17</v>
       </c>
       <c r="P17" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R17" s="5" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1592,10 +1592,10 @@
         <v>17</v>
       </c>
       <c r="P18" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
@@ -1609,45 +1609,45 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>B1A1</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E19" s="6" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F19" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G19" s="6" t="inlineStr"/>
-      <c r="H19" s="6" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G19" s="4" t="inlineStr"/>
+      <c r="H19" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I19" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K19" s="5" t="inlineStr">
@@ -1670,10 +1670,10 @@
         <v>17</v>
       </c>
       <c r="P19" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
@@ -1748,10 +1748,10 @@
         <v>16</v>
       </c>
       <c r="P20" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -3140,45 +3140,45 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B45" s="6" t="inlineStr">
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>B1A2</t>
         </is>
       </c>
-      <c r="C45" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D45" s="6" t="inlineStr">
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E45" s="6" t="inlineStr">
+      <c r="E45" s="4" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F45" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G45" s="6" t="inlineStr"/>
-      <c r="H45" s="6" t="inlineStr">
+      <c r="F45" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G45" s="4" t="inlineStr"/>
+      <c r="H45" s="4" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I45" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I45" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -4326,45 +4326,45 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B71" s="6" t="inlineStr">
+      <c r="A71" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="inlineStr">
         <is>
           <t>B1B1</t>
         </is>
       </c>
-      <c r="C71" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D71" s="6" t="inlineStr">
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D71" s="4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E71" s="6" t="inlineStr">
+      <c r="E71" s="4" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F71" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G71" s="6" t="inlineStr"/>
-      <c r="H71" s="6" t="inlineStr">
+      <c r="F71" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G71" s="4" t="inlineStr"/>
+      <c r="H71" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I71" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I71" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -5512,45 +5512,45 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B97" s="6" t="inlineStr">
+      <c r="A97" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B97" s="4" t="inlineStr">
         <is>
           <t>B1B2</t>
         </is>
       </c>
-      <c r="C97" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D97" s="6" t="inlineStr">
+      <c r="C97" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D97" s="4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E97" s="6" t="inlineStr">
+      <c r="E97" s="4" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F97" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G97" s="6" t="inlineStr"/>
-      <c r="H97" s="6" t="inlineStr">
+      <c r="F97" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G97" s="4" t="inlineStr"/>
+      <c r="H97" s="4" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I97" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I97" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6636,7 +6636,7 @@
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -6698,45 +6698,45 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B123" s="6" t="inlineStr">
+      <c r="A123" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B123" s="4" t="inlineStr">
         <is>
           <t>B1C1</t>
         </is>
       </c>
-      <c r="C123" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D123" s="6" t="inlineStr">
+      <c r="C123" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D123" s="4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E123" s="6" t="inlineStr">
+      <c r="E123" s="4" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F123" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G123" s="6" t="inlineStr"/>
-      <c r="H123" s="6" t="inlineStr">
+      <c r="F123" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G123" s="4" t="inlineStr"/>
+      <c r="H123" s="4" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I123" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I123" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7442,7 +7442,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -7818,7 +7818,7 @@
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -7880,45 +7880,45 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B149" s="6" t="inlineStr">
+      <c r="A149" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B149" s="4" t="inlineStr">
         <is>
           <t>B1C2</t>
         </is>
       </c>
-      <c r="C149" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D149" s="6" t="inlineStr">
+      <c r="C149" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D149" s="4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E149" s="6" t="inlineStr">
+      <c r="E149" s="4" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F149" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G149" s="6" t="inlineStr"/>
-      <c r="H149" s="6" t="inlineStr">
+      <c r="F149" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G149" s="4" t="inlineStr"/>
+      <c r="H149" s="4" t="inlineStr">
         <is>
           <t>0/23</t>
         </is>
       </c>
-      <c r="I149" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I149" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -8722,7 +8722,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8863,7 +8863,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9051,7 +9051,7 @@
       </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -9951,7 +9951,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -10092,7 +10092,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -10280,7 +10280,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -11180,7 +11180,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11321,7 +11321,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -11509,7 +11509,7 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
@@ -12264,7 +12264,7 @@
       </c>
       <c r="G245" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H245" s="2" t="inlineStr">
@@ -12405,7 +12405,7 @@
       </c>
       <c r="G248" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H248" s="2" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="G251" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H251" s="2" t="inlineStr">
@@ -12734,7 +12734,7 @@
       </c>
       <c r="G255" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H255" s="2" t="inlineStr">
@@ -13493,7 +13493,7 @@
       </c>
       <c r="G272" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H272" s="2" t="inlineStr">
@@ -13634,7 +13634,7 @@
       </c>
       <c r="G275" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H275" s="2" t="inlineStr">
@@ -13775,7 +13775,7 @@
       </c>
       <c r="G278" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H278" s="2" t="inlineStr">
@@ -13963,7 +13963,7 @@
       </c>
       <c r="G282" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H282" s="2" t="inlineStr">
@@ -14722,7 +14722,7 @@
       </c>
       <c r="G299" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H299" s="2" t="inlineStr">
@@ -14863,7 +14863,7 @@
       </c>
       <c r="G302" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H302" s="2" t="inlineStr">
@@ -15004,7 +15004,7 @@
       </c>
       <c r="G305" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H305" s="2" t="inlineStr">
@@ -15192,7 +15192,7 @@
       </c>
       <c r="G309" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H309" s="2" t="inlineStr">

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="5" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -981,7 +981,7 @@
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>63.2%</t>
+          <t>65.1%</t>
         </is>
       </c>
     </row>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="O15" s="5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P15" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>8</v>
       </c>
       <c r="R15" s="5" t="inlineStr">
         <is>
-          <t>61.5%</t>
+          <t>65.4%</t>
         </is>
       </c>
       <c r="S15" s="5" t="inlineStr">
         <is>
-          <t>82.5%</t>
+          <t>81.9%</t>
         </is>
       </c>
     </row>
@@ -1425,22 +1425,22 @@
         <v>26</v>
       </c>
       <c r="O16" s="5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P16" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
       </c>
       <c r="R16" s="5" t="inlineStr">
         <is>
-          <t>65.4%</t>
+          <t>69.2%</t>
         </is>
       </c>
       <c r="S16" s="5" t="inlineStr">
         <is>
-          <t>81.5%</t>
+          <t>81.1%</t>
         </is>
       </c>
     </row>
@@ -1507,22 +1507,22 @@
         <v>26</v>
       </c>
       <c r="O17" s="5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P17" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
       </c>
       <c r="R17" s="5" t="inlineStr">
         <is>
-          <t>65.4%</t>
+          <t>69.2%</t>
         </is>
       </c>
       <c r="S17" s="5" t="inlineStr">
         <is>
-          <t>71.3%</t>
+          <t>70.9%</t>
         </is>
       </c>
     </row>
@@ -1589,65 +1589,69 @@
         <v>26</v>
       </c>
       <c r="O18" s="5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P18" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>8</v>
       </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
-          <t>65.4%</t>
+          <t>69.2%</t>
         </is>
       </c>
       <c r="S18" s="5" t="inlineStr">
         <is>
-          <t>76.3%</t>
+          <t>77.0%</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>B1A1</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G19" s="4" t="inlineStr"/>
-      <c r="H19" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I19" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>19/26</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
       <c r="K19" s="5" t="inlineStr">
@@ -1667,22 +1671,22 @@
         <v>26</v>
       </c>
       <c r="O19" s="5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P19" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
-          <t>65.4%</t>
+          <t>69.2%</t>
         </is>
       </c>
       <c r="S19" s="5" t="inlineStr">
         <is>
-          <t>76.1%</t>
+          <t>76.5%</t>
         </is>
       </c>
     </row>
@@ -1745,22 +1749,22 @@
         <v>26</v>
       </c>
       <c r="O20" s="5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P20" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
-          <t>61.5%</t>
+          <t>65.4%</t>
         </is>
       </c>
       <c r="S20" s="5" t="inlineStr">
         <is>
-          <t>80.4%</t>
+          <t>80.1%</t>
         </is>
       </c>
     </row>
@@ -3140,45 +3144,49 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>B1A2</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D45" s="4" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F45" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G45" s="4" t="inlineStr"/>
-      <c r="H45" s="4" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I45" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>20/27</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -4326,45 +4334,49 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B71" s="4" t="inlineStr">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>B1B1</t>
         </is>
       </c>
-      <c r="C71" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D71" s="4" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E71" s="4" t="inlineStr">
+      <c r="E71" s="2" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F71" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G71" s="4" t="inlineStr"/>
-      <c r="H71" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I71" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>17/26</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -5512,45 +5524,49 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B97" s="4" t="inlineStr">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
         <is>
           <t>B1B2</t>
         </is>
       </c>
-      <c r="C97" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D97" s="4" t="inlineStr">
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E97" s="4" t="inlineStr">
+      <c r="E97" s="2" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F97" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G97" s="4" t="inlineStr"/>
-      <c r="H97" s="4" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I97" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>24/27</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -6698,45 +6714,49 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B123" s="4" t="inlineStr">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>B1C1</t>
         </is>
       </c>
-      <c r="C123" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D123" s="4" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E123" s="4" t="inlineStr">
+      <c r="E123" s="2" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F123" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G123" s="4" t="inlineStr"/>
-      <c r="H123" s="4" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I123" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>25/30</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -7880,45 +7900,49 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B149" s="4" t="inlineStr">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
         <is>
           <t>B1C2</t>
         </is>
       </c>
-      <c r="C149" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D149" s="4" t="inlineStr">
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E149" s="4" t="inlineStr">
+      <c r="E149" s="2" t="inlineStr">
         <is>
           <t>03/01/2026</t>
         </is>
       </c>
-      <c r="F149" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G149" s="4" t="inlineStr"/>
-      <c r="H149" s="4" t="inlineStr">
-        <is>
-          <t>0/23</t>
-        </is>
-      </c>
-      <c r="I149" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F149" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G149" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H149" s="2" t="inlineStr">
+        <is>
+          <t>17/23</t>
+        </is>
+      </c>
+      <c r="I149" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1834,10 +1834,10 @@
         <v>17</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
@@ -1912,10 +1912,10 @@
         <v>17</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         <v>17</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
@@ -2068,10 +2068,10 @@
         <v>16</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q24" s="5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
@@ -2146,10 +2146,10 @@
         <v>17</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
@@ -2224,10 +2224,10 @@
         <v>17</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -5051,7 +5051,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7482,7 +7482,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -7717,7 +7717,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -7858,7 +7858,7 @@
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -8629,7 +8629,7 @@
       </c>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -8770,7 +8770,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9099,7 +9099,7 @@
       </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
@@ -9157,45 +9157,45 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B176" s="6" t="inlineStr">
+      <c r="A176" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B176" s="4" t="inlineStr">
         <is>
           <t>B1D1</t>
         </is>
       </c>
-      <c r="C176" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D176" s="6" t="inlineStr">
+      <c r="C176" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D176" s="4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E176" s="6" t="inlineStr">
+      <c r="E176" s="4" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F176" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G176" s="6" t="inlineStr"/>
-      <c r="H176" s="6" t="inlineStr">
+      <c r="F176" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G176" s="4" t="inlineStr"/>
+      <c r="H176" s="4" t="inlineStr">
         <is>
           <t>0/23</t>
         </is>
       </c>
-      <c r="I176" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I176" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9858,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -9999,7 +9999,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -10328,7 +10328,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -10386,45 +10386,45 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B203" s="6" t="inlineStr">
+      <c r="A203" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B203" s="4" t="inlineStr">
         <is>
           <t>B1D2</t>
         </is>
       </c>
-      <c r="C203" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D203" s="6" t="inlineStr">
+      <c r="C203" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D203" s="4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E203" s="6" t="inlineStr">
+      <c r="E203" s="4" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F203" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G203" s="6" t="inlineStr"/>
-      <c r="H203" s="6" t="inlineStr">
+      <c r="F203" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G203" s="4" t="inlineStr"/>
+      <c r="H203" s="4" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I203" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I203" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11087,7 +11087,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11369,7 +11369,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -11557,7 +11557,7 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
@@ -11615,45 +11615,45 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B230" s="6" t="inlineStr">
+      <c r="A230" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B230" s="4" t="inlineStr">
         <is>
           <t>B1E1</t>
         </is>
       </c>
-      <c r="C230" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D230" s="6" t="inlineStr">
+      <c r="C230" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D230" s="4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E230" s="6" t="inlineStr">
+      <c r="E230" s="4" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F230" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G230" s="6" t="inlineStr"/>
-      <c r="H230" s="6" t="inlineStr">
+      <c r="F230" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G230" s="4" t="inlineStr"/>
+      <c r="H230" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I230" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I230" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -12312,7 +12312,7 @@
       </c>
       <c r="G245" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H245" s="2" t="inlineStr">
@@ -12453,7 +12453,7 @@
       </c>
       <c r="G248" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H248" s="2" t="inlineStr">
@@ -12594,7 +12594,7 @@
       </c>
       <c r="G251" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H251" s="2" t="inlineStr">
@@ -12782,7 +12782,7 @@
       </c>
       <c r="G255" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H255" s="2" t="inlineStr">
@@ -12840,45 +12840,45 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B257" s="6" t="inlineStr">
+      <c r="A257" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B257" s="4" t="inlineStr">
         <is>
           <t>B1E2</t>
         </is>
       </c>
-      <c r="C257" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D257" s="6" t="inlineStr">
+      <c r="C257" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D257" s="4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E257" s="6" t="inlineStr">
+      <c r="E257" s="4" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F257" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G257" s="6" t="inlineStr"/>
-      <c r="H257" s="6" t="inlineStr">
+      <c r="F257" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G257" s="4" t="inlineStr"/>
+      <c r="H257" s="4" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I257" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I257" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13541,7 +13541,7 @@
       </c>
       <c r="G272" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H272" s="2" t="inlineStr">
@@ -13682,7 +13682,7 @@
       </c>
       <c r="G275" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H275" s="2" t="inlineStr">
@@ -13823,7 +13823,7 @@
       </c>
       <c r="G278" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H278" s="2" t="inlineStr">
@@ -14011,7 +14011,7 @@
       </c>
       <c r="G282" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H282" s="2" t="inlineStr">
@@ -14069,45 +14069,45 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B284" s="6" t="inlineStr">
+      <c r="A284" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B284" s="4" t="inlineStr">
         <is>
           <t>B1F1</t>
         </is>
       </c>
-      <c r="C284" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D284" s="6" t="inlineStr">
+      <c r="C284" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D284" s="4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E284" s="6" t="inlineStr">
+      <c r="E284" s="4" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F284" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G284" s="6" t="inlineStr"/>
-      <c r="H284" s="6" t="inlineStr">
+      <c r="F284" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G284" s="4" t="inlineStr"/>
+      <c r="H284" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I284" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I284" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14770,7 +14770,7 @@
       </c>
       <c r="G299" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H299" s="2" t="inlineStr">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="G302" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H302" s="2" t="inlineStr">
@@ -15052,7 +15052,7 @@
       </c>
       <c r="G305" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H305" s="2" t="inlineStr">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="G309" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H309" s="2" t="inlineStr">
@@ -15298,45 +15298,45 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B311" s="6" t="inlineStr">
+      <c r="A311" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B311" s="4" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="C311" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D311" s="6" t="inlineStr">
+      <c r="C311" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D311" s="4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E311" s="6" t="inlineStr">
+      <c r="E311" s="4" t="inlineStr">
         <is>
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="F311" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G311" s="6" t="inlineStr"/>
-      <c r="H311" s="6" t="inlineStr">
+      <c r="F311" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G311" s="4" t="inlineStr"/>
+      <c r="H311" s="4" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I311" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I311" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1346,10 +1346,10 @@
         <v>18</v>
       </c>
       <c r="P15" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15" s="5" t="inlineStr">
         <is>
@@ -1428,10 +1428,10 @@
         <v>19</v>
       </c>
       <c r="P16" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16" s="5" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1510,10 +1510,10 @@
         <v>19</v>
       </c>
       <c r="P17" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17" s="5" t="inlineStr">
         <is>
@@ -1592,10 +1592,10 @@
         <v>19</v>
       </c>
       <c r="P18" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
         <v>19</v>
       </c>
       <c r="P19" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
@@ -1756,10 +1756,10 @@
         <v>18</v>
       </c>
       <c r="P20" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
@@ -1851,45 +1851,45 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>B1A1</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D22" s="6" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E22" s="6" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F22" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G22" s="6" t="inlineStr"/>
-      <c r="H22" s="6" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr"/>
+      <c r="H22" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I22" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3285,45 +3285,45 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B48" s="6" t="inlineStr">
+      <c r="A48" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>B1A2</t>
         </is>
       </c>
-      <c r="C48" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D48" s="6" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E48" s="6" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F48" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G48" s="6" t="inlineStr"/>
-      <c r="H48" s="6" t="inlineStr">
+      <c r="F48" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G48" s="4" t="inlineStr"/>
+      <c r="H48" s="4" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I48" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I48" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -4479,45 +4479,45 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B74" s="6" t="inlineStr">
+      <c r="A74" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B74" s="4" t="inlineStr">
         <is>
           <t>B1B1</t>
         </is>
       </c>
-      <c r="C74" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D74" s="6" t="inlineStr">
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D74" s="4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E74" s="6" t="inlineStr">
+      <c r="E74" s="4" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F74" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G74" s="6" t="inlineStr"/>
-      <c r="H74" s="6" t="inlineStr">
+      <c r="F74" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G74" s="4" t="inlineStr"/>
+      <c r="H74" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I74" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I74" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -5673,45 +5673,45 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B100" s="6" t="inlineStr">
+      <c r="A100" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B100" s="4" t="inlineStr">
         <is>
           <t>B1B2</t>
         </is>
       </c>
-      <c r="C100" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D100" s="6" t="inlineStr">
+      <c r="C100" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D100" s="4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E100" s="6" t="inlineStr">
+      <c r="E100" s="4" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F100" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G100" s="6" t="inlineStr"/>
-      <c r="H100" s="6" t="inlineStr">
+      <c r="F100" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G100" s="4" t="inlineStr"/>
+      <c r="H100" s="4" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I100" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I100" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -6867,45 +6867,45 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B126" s="6" t="inlineStr">
+      <c r="A126" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B126" s="4" t="inlineStr">
         <is>
           <t>B1C1</t>
         </is>
       </c>
-      <c r="C126" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D126" s="6" t="inlineStr">
+      <c r="C126" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D126" s="4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E126" s="6" t="inlineStr">
+      <c r="E126" s="4" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F126" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G126" s="6" t="inlineStr"/>
-      <c r="H126" s="6" t="inlineStr">
+      <c r="F126" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G126" s="4" t="inlineStr"/>
+      <c r="H126" s="4" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I126" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I126" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7482,7 +7482,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -7717,7 +7717,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -7858,7 +7858,7 @@
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -8057,45 +8057,45 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B152" s="6" t="inlineStr">
+      <c r="A152" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B152" s="4" t="inlineStr">
         <is>
           <t>B1C2</t>
         </is>
       </c>
-      <c r="C152" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D152" s="6" t="inlineStr">
+      <c r="C152" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D152" s="4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E152" s="6" t="inlineStr">
+      <c r="E152" s="4" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F152" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G152" s="6" t="inlineStr"/>
-      <c r="H152" s="6" t="inlineStr">
+      <c r="F152" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G152" s="4" t="inlineStr"/>
+      <c r="H152" s="4" t="inlineStr">
         <is>
           <t>0/23</t>
         </is>
       </c>
-      <c r="I152" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I152" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="5" t="n">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -981,7 +981,7 @@
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>68.9%</t>
+          <t>70.8%</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="L10" s="5" t="inlineStr">
         <is>
-          <t>75.9%</t>
+          <t>76.0%</t>
         </is>
       </c>
     </row>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="O15" s="5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>5</v>
       </c>
       <c r="R15" s="5" t="inlineStr">
         <is>
-          <t>69.2%</t>
+          <t>73.1%</t>
         </is>
       </c>
       <c r="S15" s="5" t="inlineStr">
         <is>
-          <t>81.6%</t>
+          <t>81.0%</t>
         </is>
       </c>
     </row>
@@ -1425,22 +1425,22 @@
         <v>26</v>
       </c>
       <c r="O16" s="5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P16" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
       </c>
       <c r="R16" s="5" t="inlineStr">
         <is>
-          <t>73.1%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="S16" s="5" t="inlineStr">
         <is>
-          <t>80.7%</t>
+          <t>80.9%</t>
         </is>
       </c>
     </row>
@@ -1507,22 +1507,22 @@
         <v>26</v>
       </c>
       <c r="O17" s="5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P17" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
       </c>
       <c r="R17" s="5" t="inlineStr">
         <is>
-          <t>73.1%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="S17" s="5" t="inlineStr">
         <is>
-          <t>70.9%</t>
+          <t>71.7%</t>
         </is>
       </c>
     </row>
@@ -1589,22 +1589,22 @@
         <v>26</v>
       </c>
       <c r="O18" s="5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P18" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
       </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
-          <t>73.1%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="S18" s="5" t="inlineStr">
         <is>
-          <t>78.2%</t>
+          <t>78.7%</t>
         </is>
       </c>
     </row>
@@ -1671,22 +1671,22 @@
         <v>26</v>
       </c>
       <c r="O19" s="5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P19" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
-          <t>73.1%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="S19" s="5" t="inlineStr">
         <is>
-          <t>76.8%</t>
+          <t>77.3%</t>
         </is>
       </c>
     </row>
@@ -1753,22 +1753,22 @@
         <v>26</v>
       </c>
       <c r="O20" s="5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P20" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
-          <t>69.2%</t>
+          <t>73.1%</t>
         </is>
       </c>
       <c r="S20" s="5" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>79.9%</t>
         </is>
       </c>
     </row>
@@ -1851,45 +1851,49 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>B1A1</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr"/>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>18/26</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -3285,45 +3289,49 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>B1A2</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D48" s="4" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F48" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G48" s="4" t="inlineStr"/>
-      <c r="H48" s="4" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I48" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>23/27</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -4479,45 +4487,49 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B74" s="4" t="inlineStr">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
         <is>
           <t>B1B1</t>
         </is>
       </c>
-      <c r="C74" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D74" s="4" t="inlineStr">
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E74" s="4" t="inlineStr">
+      <c r="E74" s="2" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F74" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G74" s="4" t="inlineStr"/>
-      <c r="H74" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I74" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>23/26</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -5673,45 +5685,49 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B100" s="4" t="inlineStr">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>B1B2</t>
         </is>
       </c>
-      <c r="C100" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D100" s="4" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E100" s="4" t="inlineStr">
+      <c r="E100" s="2" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F100" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G100" s="4" t="inlineStr"/>
-      <c r="H100" s="4" t="inlineStr">
-        <is>
-          <t>0/27</t>
-        </is>
-      </c>
-      <c r="I100" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>24/27</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -6867,45 +6883,49 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B126" s="4" t="inlineStr">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
         <is>
           <t>B1C1</t>
         </is>
       </c>
-      <c r="C126" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D126" s="4" t="inlineStr">
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E126" s="4" t="inlineStr">
+      <c r="E126" s="2" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F126" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G126" s="4" t="inlineStr"/>
-      <c r="H126" s="4" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I126" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>26/30</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -8057,45 +8077,49 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B152" s="4" t="inlineStr">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
         <is>
           <t>B1C2</t>
         </is>
       </c>
-      <c r="C152" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D152" s="4" t="inlineStr">
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E152" s="4" t="inlineStr">
+      <c r="E152" s="2" t="inlineStr">
         <is>
           <t>10/01/2026</t>
         </is>
       </c>
-      <c r="F152" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G152" s="4" t="inlineStr"/>
-      <c r="H152" s="4" t="inlineStr">
-        <is>
-          <t>0/23</t>
-        </is>
-      </c>
-      <c r="I152" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F152" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G152" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H152" s="2" t="inlineStr">
+        <is>
+          <t>18/23</t>
+        </is>
+      </c>
+      <c r="I152" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6684,7 +6684,7 @@
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7784,7 +7784,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -7878,7 +7878,7 @@
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1346,10 +1346,10 @@
         <v>19</v>
       </c>
       <c r="P15" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15" s="5" t="inlineStr">
         <is>
@@ -1428,10 +1428,10 @@
         <v>20</v>
       </c>
       <c r="P16" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16" s="5" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1510,10 +1510,10 @@
         <v>20</v>
       </c>
       <c r="P17" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17" s="5" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1592,10 +1592,10 @@
         <v>20</v>
       </c>
       <c r="P18" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
         <v>20</v>
       </c>
       <c r="P19" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
@@ -1756,10 +1756,10 @@
         <v>19</v>
       </c>
       <c r="P20" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
@@ -1933,45 +1933,45 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>B1A1</t>
         </is>
       </c>
-      <c r="C23" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D23" s="6" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E23" s="6" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F23" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G23" s="6" t="inlineStr"/>
-      <c r="H23" s="6" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr"/>
+      <c r="H23" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I23" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K23" s="5" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -3336,45 +3336,45 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B49" s="6" t="inlineStr">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>B1A2</t>
         </is>
       </c>
-      <c r="C49" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D49" s="6" t="inlineStr">
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E49" s="6" t="inlineStr">
+      <c r="E49" s="4" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F49" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G49" s="6" t="inlineStr"/>
-      <c r="H49" s="6" t="inlineStr">
+      <c r="F49" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G49" s="4" t="inlineStr"/>
+      <c r="H49" s="4" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I49" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I49" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -4534,45 +4534,45 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B75" s="6" t="inlineStr">
+      <c r="A75" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B75" s="4" t="inlineStr">
         <is>
           <t>B1B1</t>
         </is>
       </c>
-      <c r="C75" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D75" s="6" t="inlineStr">
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D75" s="4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E75" s="6" t="inlineStr">
+      <c r="E75" s="4" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F75" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G75" s="6" t="inlineStr"/>
-      <c r="H75" s="6" t="inlineStr">
+      <c r="F75" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G75" s="4" t="inlineStr"/>
+      <c r="H75" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I75" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I75" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -5732,45 +5732,45 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B101" s="6" t="inlineStr">
+      <c r="A101" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B101" s="4" t="inlineStr">
         <is>
           <t>B1B2</t>
         </is>
       </c>
-      <c r="C101" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D101" s="6" t="inlineStr">
+      <c r="C101" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D101" s="4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E101" s="6" t="inlineStr">
+      <c r="E101" s="4" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F101" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G101" s="6" t="inlineStr"/>
-      <c r="H101" s="6" t="inlineStr">
+      <c r="F101" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G101" s="4" t="inlineStr"/>
+      <c r="H101" s="4" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I101" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I101" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6684,7 +6684,7 @@
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -6731,7 +6731,7 @@
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -6930,45 +6930,45 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B127" s="6" t="inlineStr">
+      <c r="A127" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B127" s="4" t="inlineStr">
         <is>
           <t>B1C1</t>
         </is>
       </c>
-      <c r="C127" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D127" s="6" t="inlineStr">
+      <c r="C127" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D127" s="4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E127" s="6" t="inlineStr">
+      <c r="E127" s="4" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F127" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G127" s="6" t="inlineStr"/>
-      <c r="H127" s="6" t="inlineStr">
+      <c r="F127" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G127" s="4" t="inlineStr"/>
+      <c r="H127" s="4" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I127" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I127" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7455,7 +7455,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7784,7 +7784,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -7878,7 +7878,7 @@
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -7925,7 +7925,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -8124,45 +8124,45 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B153" s="6" t="inlineStr">
+      <c r="A153" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B153" s="4" t="inlineStr">
         <is>
           <t>B1C2</t>
         </is>
       </c>
-      <c r="C153" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D153" s="6" t="inlineStr">
+      <c r="C153" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D153" s="4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E153" s="6" t="inlineStr">
+      <c r="E153" s="4" t="inlineStr">
         <is>
           <t>11/01/2026</t>
         </is>
       </c>
-      <c r="F153" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G153" s="6" t="inlineStr"/>
-      <c r="H153" s="6" t="inlineStr">
+      <c r="F153" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G153" s="4" t="inlineStr"/>
+      <c r="H153" s="4" t="inlineStr">
         <is>
           <t>0/23</t>
         </is>
       </c>
-      <c r="I153" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I153" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8653,7 +8653,7 @@
       </c>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -8794,7 +8794,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
@@ -9886,7 +9886,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -10027,7 +10027,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
@@ -12348,7 +12348,7 @@
       </c>
       <c r="G245" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H245" s="2" t="inlineStr">
@@ -12489,7 +12489,7 @@
       </c>
       <c r="G248" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H248" s="2" t="inlineStr">
@@ -12630,7 +12630,7 @@
       </c>
       <c r="G251" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H251" s="2" t="inlineStr">
@@ -12818,7 +12818,7 @@
       </c>
       <c r="G255" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H255" s="2" t="inlineStr">
@@ -13581,7 +13581,7 @@
       </c>
       <c r="G272" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H272" s="2" t="inlineStr">
@@ -13722,7 +13722,7 @@
       </c>
       <c r="G275" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H275" s="2" t="inlineStr">
@@ -13863,7 +13863,7 @@
       </c>
       <c r="G278" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H278" s="2" t="inlineStr">
@@ -14051,7 +14051,7 @@
       </c>
       <c r="G282" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H282" s="2" t="inlineStr">
@@ -14814,7 +14814,7 @@
       </c>
       <c r="G299" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H299" s="2" t="inlineStr">
@@ -14955,7 +14955,7 @@
       </c>
       <c r="G302" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H302" s="2" t="inlineStr">
@@ -15096,7 +15096,7 @@
       </c>
       <c r="G305" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H305" s="2" t="inlineStr">
@@ -15284,7 +15284,7 @@
       </c>
       <c r="G309" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H309" s="2" t="inlineStr">

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -1559,7 +1559,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -8677,7 +8677,7 @@
       </c>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -8818,7 +8818,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8959,7 +8959,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
@@ -9910,7 +9910,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -10051,7 +10051,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -10192,7 +10192,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -10380,7 +10380,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -11284,7 +11284,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11425,7 +11425,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -11613,7 +11613,7 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
@@ -12372,7 +12372,7 @@
       </c>
       <c r="G245" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H245" s="2" t="inlineStr">
@@ -12513,7 +12513,7 @@
       </c>
       <c r="G248" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H248" s="2" t="inlineStr">
@@ -12654,7 +12654,7 @@
       </c>
       <c r="G251" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H251" s="2" t="inlineStr">
@@ -12842,7 +12842,7 @@
       </c>
       <c r="G255" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H255" s="2" t="inlineStr">
@@ -13605,7 +13605,7 @@
       </c>
       <c r="G272" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H272" s="2" t="inlineStr">
@@ -13746,7 +13746,7 @@
       </c>
       <c r="G275" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H275" s="2" t="inlineStr">
@@ -13887,7 +13887,7 @@
       </c>
       <c r="G278" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H278" s="2" t="inlineStr">
@@ -14075,7 +14075,7 @@
       </c>
       <c r="G282" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H282" s="2" t="inlineStr">
@@ -14838,7 +14838,7 @@
       </c>
       <c r="G299" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H299" s="2" t="inlineStr">
@@ -14979,7 +14979,7 @@
       </c>
       <c r="G302" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H302" s="2" t="inlineStr">
@@ -15120,7 +15120,7 @@
       </c>
       <c r="G305" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H305" s="2" t="inlineStr">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="G309" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H309" s="2" t="inlineStr">

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -1346,10 +1346,10 @@
         <v>20</v>
       </c>
       <c r="P15" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R15" s="5" t="inlineStr">
         <is>
@@ -1428,10 +1428,10 @@
         <v>21</v>
       </c>
       <c r="P16" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R16" s="5" t="inlineStr">
         <is>
@@ -1510,10 +1510,10 @@
         <v>21</v>
       </c>
       <c r="P17" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R17" s="5" t="inlineStr">
         <is>
@@ -1592,10 +1592,10 @@
         <v>21</v>
       </c>
       <c r="P18" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
         <v>21</v>
       </c>
       <c r="P19" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
@@ -1756,10 +1756,10 @@
         <v>20</v>
       </c>
       <c r="P20" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
@@ -2015,45 +2015,45 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>B1A1</t>
         </is>
       </c>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D24" s="6" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E24" s="6" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F24" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G24" s="6" t="inlineStr"/>
-      <c r="H24" s="6" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr"/>
+      <c r="H24" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I24" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K24" s="5" t="inlineStr">
@@ -3387,45 +3387,45 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B50" s="6" t="inlineStr">
+      <c r="A50" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>B1A2</t>
         </is>
       </c>
-      <c r="C50" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D50" s="6" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E50" s="6" t="inlineStr">
+      <c r="E50" s="4" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F50" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G50" s="6" t="inlineStr"/>
-      <c r="H50" s="6" t="inlineStr">
+      <c r="F50" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G50" s="4" t="inlineStr"/>
+      <c r="H50" s="4" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I50" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I50" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -4589,45 +4589,45 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B76" s="6" t="inlineStr">
+      <c r="A76" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B76" s="4" t="inlineStr">
         <is>
           <t>B1B1</t>
         </is>
       </c>
-      <c r="C76" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D76" s="6" t="inlineStr">
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D76" s="4" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E76" s="6" t="inlineStr">
+      <c r="E76" s="4" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F76" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G76" s="6" t="inlineStr"/>
-      <c r="H76" s="6" t="inlineStr">
+      <c r="F76" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G76" s="4" t="inlineStr"/>
+      <c r="H76" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I76" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I76" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5791,45 +5791,45 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B102" s="6" t="inlineStr">
+      <c r="A102" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B102" s="4" t="inlineStr">
         <is>
           <t>B1B2</t>
         </is>
       </c>
-      <c r="C102" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D102" s="6" t="inlineStr">
+      <c r="C102" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D102" s="4" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E102" s="6" t="inlineStr">
+      <c r="E102" s="4" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F102" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G102" s="6" t="inlineStr"/>
-      <c r="H102" s="6" t="inlineStr">
+      <c r="F102" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G102" s="4" t="inlineStr"/>
+      <c r="H102" s="4" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I102" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I102" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6993,45 +6993,45 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B128" s="6" t="inlineStr">
+      <c r="A128" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B128" s="4" t="inlineStr">
         <is>
           <t>B1C1</t>
         </is>
       </c>
-      <c r="C128" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D128" s="6" t="inlineStr">
+      <c r="C128" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D128" s="4" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E128" s="6" t="inlineStr">
+      <c r="E128" s="4" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F128" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G128" s="6" t="inlineStr"/>
-      <c r="H128" s="6" t="inlineStr">
+      <c r="F128" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G128" s="4" t="inlineStr"/>
+      <c r="H128" s="4" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I128" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I128" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8191,45 +8191,45 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B154" s="6" t="inlineStr">
+      <c r="A154" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B154" s="4" t="inlineStr">
         <is>
           <t>B1C2</t>
         </is>
       </c>
-      <c r="C154" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D154" s="6" t="inlineStr">
+      <c r="C154" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D154" s="4" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E154" s="6" t="inlineStr">
+      <c r="E154" s="4" t="inlineStr">
         <is>
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="F154" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G154" s="6" t="inlineStr"/>
-      <c r="H154" s="6" t="inlineStr">
+      <c r="F154" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G154" s="4" t="inlineStr"/>
+      <c r="H154" s="4" t="inlineStr">
         <is>
           <t>0/23</t>
         </is>
       </c>
-      <c r="I154" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I154" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -1834,10 +1834,10 @@
         <v>18</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
@@ -1916,10 +1916,10 @@
         <v>18</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
@@ -1998,10 +1998,10 @@
         <v>18</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q23" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
@@ -2080,10 +2080,10 @@
         <v>17</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q24" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
@@ -2158,10 +2158,10 @@
         <v>18</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q25" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
@@ -2236,10 +2236,10 @@
         <v>18</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q26" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
@@ -9362,45 +9362,45 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B179" s="6" t="inlineStr">
+      <c r="A179" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B179" s="4" t="inlineStr">
         <is>
           <t>B1D1</t>
         </is>
       </c>
-      <c r="C179" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D179" s="6" t="inlineStr">
+      <c r="C179" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D179" s="4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E179" s="6" t="inlineStr">
+      <c r="E179" s="4" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F179" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G179" s="6" t="inlineStr"/>
-      <c r="H179" s="6" t="inlineStr">
+      <c r="F179" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G179" s="4" t="inlineStr"/>
+      <c r="H179" s="4" t="inlineStr">
         <is>
           <t>0/23</t>
         </is>
       </c>
-      <c r="I179" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I179" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10595,45 +10595,45 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B206" s="6" t="inlineStr">
+      <c r="A206" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B206" s="4" t="inlineStr">
         <is>
           <t>B1D2</t>
         </is>
       </c>
-      <c r="C206" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D206" s="6" t="inlineStr">
+      <c r="C206" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D206" s="4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E206" s="6" t="inlineStr">
+      <c r="E206" s="4" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F206" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G206" s="6" t="inlineStr"/>
-      <c r="H206" s="6" t="inlineStr">
+      <c r="F206" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G206" s="4" t="inlineStr"/>
+      <c r="H206" s="4" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I206" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I206" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11828,45 +11828,45 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B233" s="6" t="inlineStr">
+      <c r="A233" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B233" s="4" t="inlineStr">
         <is>
           <t>B1E1</t>
         </is>
       </c>
-      <c r="C233" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D233" s="6" t="inlineStr">
+      <c r="C233" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D233" s="4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E233" s="6" t="inlineStr">
+      <c r="E233" s="4" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F233" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G233" s="6" t="inlineStr"/>
-      <c r="H233" s="6" t="inlineStr">
+      <c r="F233" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G233" s="4" t="inlineStr"/>
+      <c r="H233" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I233" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I233" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13057,45 +13057,45 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B260" s="6" t="inlineStr">
+      <c r="A260" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B260" s="4" t="inlineStr">
         <is>
           <t>B1E2</t>
         </is>
       </c>
-      <c r="C260" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D260" s="6" t="inlineStr">
+      <c r="C260" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D260" s="4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E260" s="6" t="inlineStr">
+      <c r="E260" s="4" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F260" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G260" s="6" t="inlineStr"/>
-      <c r="H260" s="6" t="inlineStr">
+      <c r="F260" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G260" s="4" t="inlineStr"/>
+      <c r="H260" s="4" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I260" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I260" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14290,45 +14290,45 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B287" s="6" t="inlineStr">
+      <c r="A287" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B287" s="4" t="inlineStr">
         <is>
           <t>B1F1</t>
         </is>
       </c>
-      <c r="C287" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D287" s="6" t="inlineStr">
+      <c r="C287" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D287" s="4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E287" s="6" t="inlineStr">
+      <c r="E287" s="4" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F287" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G287" s="6" t="inlineStr"/>
-      <c r="H287" s="6" t="inlineStr">
+      <c r="F287" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G287" s="4" t="inlineStr"/>
+      <c r="H287" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I287" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I287" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15523,45 +15523,45 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B314" s="6" t="inlineStr">
+      <c r="A314" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B314" s="4" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="C314" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D314" s="6" t="inlineStr">
+      <c r="C314" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D314" s="4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E314" s="6" t="inlineStr">
+      <c r="E314" s="4" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F314" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G314" s="6" t="inlineStr"/>
-      <c r="H314" s="6" t="inlineStr">
+      <c r="F314" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G314" s="4" t="inlineStr"/>
+      <c r="H314" s="4" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I314" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I314" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="5" t="n">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -981,7 +981,7 @@
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>74.5%</t>
+          <t>76.4%</t>
         </is>
       </c>
     </row>
@@ -1831,22 +1831,22 @@
         <v>27</v>
       </c>
       <c r="O21" s="5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>70.4%</t>
         </is>
       </c>
       <c r="S21" s="5" t="inlineStr">
         <is>
-          <t>78.0%</t>
+          <t>78.5%</t>
         </is>
       </c>
     </row>
@@ -1913,22 +1913,22 @@
         <v>27</v>
       </c>
       <c r="O22" s="5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>70.4%</t>
         </is>
       </c>
       <c r="S22" s="5" t="inlineStr">
         <is>
-          <t>77.6%</t>
+          <t>77.5%</t>
         </is>
       </c>
     </row>
@@ -1995,22 +1995,22 @@
         <v>27</v>
       </c>
       <c r="O23" s="5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>70.4%</t>
         </is>
       </c>
       <c r="S23" s="5" t="inlineStr">
         <is>
-          <t>78.4%</t>
+          <t>78.5%</t>
         </is>
       </c>
     </row>
@@ -2077,22 +2077,22 @@
         <v>27</v>
       </c>
       <c r="O24" s="5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
-          <t>63.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="S24" s="5" t="inlineStr">
         <is>
-          <t>72.7%</t>
+          <t>71.8%</t>
         </is>
       </c>
     </row>
@@ -2155,22 +2155,22 @@
         <v>27</v>
       </c>
       <c r="O25" s="5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>70.4%</t>
         </is>
       </c>
       <c r="S25" s="5" t="inlineStr">
         <is>
-          <t>71.4%</t>
+          <t>71.3%</t>
         </is>
       </c>
     </row>
@@ -2233,22 +2233,22 @@
         <v>27</v>
       </c>
       <c r="O26" s="5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>70.4%</t>
         </is>
       </c>
       <c r="S26" s="5" t="inlineStr">
         <is>
-          <t>63.8%</t>
+          <t>64.2%</t>
         </is>
       </c>
     </row>
@@ -9362,45 +9362,49 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B179" s="4" t="inlineStr">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>B1D1</t>
         </is>
       </c>
-      <c r="C179" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D179" s="4" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E179" s="4" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F179" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G179" s="4" t="inlineStr"/>
-      <c r="H179" s="4" t="inlineStr">
-        <is>
-          <t>0/23</t>
-        </is>
-      </c>
-      <c r="I179" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>20/23</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -10595,45 +10599,49 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B206" s="4" t="inlineStr">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
         <is>
           <t>B1D2</t>
         </is>
       </c>
-      <c r="C206" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D206" s="4" t="inlineStr">
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E206" s="4" t="inlineStr">
+      <c r="E206" s="2" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F206" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G206" s="4" t="inlineStr"/>
-      <c r="H206" s="4" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I206" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>23/30</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -11828,45 +11836,49 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B233" s="4" t="inlineStr">
+      <c r="A233" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>B1E1</t>
         </is>
       </c>
-      <c r="C233" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D233" s="4" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E233" s="4" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F233" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G233" s="4" t="inlineStr"/>
-      <c r="H233" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I233" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F233" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G233" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>21/26</t>
+        </is>
+      </c>
+      <c r="I233" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -13057,45 +13069,49 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B260" s="4" t="inlineStr">
+      <c r="A260" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="inlineStr">
         <is>
           <t>B1E2</t>
         </is>
       </c>
-      <c r="C260" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D260" s="4" t="inlineStr">
+      <c r="C260" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E260" s="4" t="inlineStr">
+      <c r="E260" s="2" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F260" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G260" s="4" t="inlineStr"/>
-      <c r="H260" s="4" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I260" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F260" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G260" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>16/28</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -14290,45 +14306,49 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B287" s="4" t="inlineStr">
+      <c r="A287" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B287" s="2" t="inlineStr">
         <is>
           <t>B1F1</t>
         </is>
       </c>
-      <c r="C287" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D287" s="4" t="inlineStr">
+      <c r="C287" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D287" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E287" s="4" t="inlineStr">
+      <c r="E287" s="2" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F287" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G287" s="4" t="inlineStr"/>
-      <c r="H287" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I287" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F287" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G287" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H287" s="2" t="inlineStr">
+        <is>
+          <t>18/26</t>
+        </is>
+      </c>
+      <c r="I287" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -15523,45 +15543,49 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B314" s="4" t="inlineStr">
+      <c r="A314" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B314" s="2" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="C314" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D314" s="4" t="inlineStr">
+      <c r="C314" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D314" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E314" s="4" t="inlineStr">
+      <c r="E314" s="2" t="inlineStr">
         <is>
           <t>13/01/2026</t>
         </is>
       </c>
-      <c r="F314" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G314" s="4" t="inlineStr"/>
-      <c r="H314" s="4" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I314" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F314" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G314" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H314" s="2" t="inlineStr">
+        <is>
+          <t>21/29</t>
+        </is>
+      </c>
+      <c r="I314" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1834,10 +1834,10 @@
         <v>19</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
@@ -1916,10 +1916,10 @@
         <v>19</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
@@ -1998,10 +1998,10 @@
         <v>19</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q23" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
@@ -2080,10 +2080,10 @@
         <v>18</v>
       </c>
       <c r="P24" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="5" t="n">
         <v>4</v>
-      </c>
-      <c r="Q24" s="5" t="n">
-        <v>5</v>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
@@ -2158,10 +2158,10 @@
         <v>19</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q25" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
@@ -2236,10 +2236,10 @@
         <v>19</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q26" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -5087,7 +5087,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6387,7 +6387,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -6622,7 +6622,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7542,7 +7542,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -7918,7 +7918,7 @@
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -9409,45 +9409,45 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B180" s="6" t="inlineStr">
+      <c r="A180" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B180" s="4" t="inlineStr">
         <is>
           <t>B1D1</t>
         </is>
       </c>
-      <c r="C180" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D180" s="6" t="inlineStr">
+      <c r="C180" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D180" s="4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E180" s="6" t="inlineStr">
+      <c r="E180" s="4" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F180" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G180" s="6" t="inlineStr"/>
-      <c r="H180" s="6" t="inlineStr">
+      <c r="F180" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G180" s="4" t="inlineStr"/>
+      <c r="H180" s="4" t="inlineStr">
         <is>
           <t>0/23</t>
         </is>
       </c>
-      <c r="I180" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I180" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10646,45 +10646,45 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B207" s="6" t="inlineStr">
+      <c r="A207" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B207" s="4" t="inlineStr">
         <is>
           <t>B1D2</t>
         </is>
       </c>
-      <c r="C207" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D207" s="6" t="inlineStr">
+      <c r="C207" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D207" s="4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E207" s="6" t="inlineStr">
+      <c r="E207" s="4" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F207" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G207" s="6" t="inlineStr"/>
-      <c r="H207" s="6" t="inlineStr">
+      <c r="F207" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G207" s="4" t="inlineStr"/>
+      <c r="H207" s="4" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I207" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I207" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11883,45 +11883,45 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B234" s="6" t="inlineStr">
+      <c r="A234" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B234" s="4" t="inlineStr">
         <is>
           <t>B1E1</t>
         </is>
       </c>
-      <c r="C234" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D234" s="6" t="inlineStr">
+      <c r="C234" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D234" s="4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E234" s="6" t="inlineStr">
+      <c r="E234" s="4" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F234" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G234" s="6" t="inlineStr"/>
-      <c r="H234" s="6" t="inlineStr">
+      <c r="F234" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G234" s="4" t="inlineStr"/>
+      <c r="H234" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I234" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I234" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13116,45 +13116,45 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B261" s="6" t="inlineStr">
+      <c r="A261" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B261" s="4" t="inlineStr">
         <is>
           <t>B1E2</t>
         </is>
       </c>
-      <c r="C261" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D261" s="6" t="inlineStr">
+      <c r="C261" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D261" s="4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E261" s="6" t="inlineStr">
+      <c r="E261" s="4" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F261" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G261" s="6" t="inlineStr"/>
-      <c r="H261" s="6" t="inlineStr">
+      <c r="F261" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G261" s="4" t="inlineStr"/>
+      <c r="H261" s="4" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I261" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I261" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14353,45 +14353,45 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B288" s="6" t="inlineStr">
+      <c r="A288" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B288" s="4" t="inlineStr">
         <is>
           <t>B1F1</t>
         </is>
       </c>
-      <c r="C288" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D288" s="6" t="inlineStr">
+      <c r="C288" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D288" s="4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E288" s="6" t="inlineStr">
+      <c r="E288" s="4" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F288" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G288" s="6" t="inlineStr"/>
-      <c r="H288" s="6" t="inlineStr">
+      <c r="F288" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G288" s="4" t="inlineStr"/>
+      <c r="H288" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I288" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I288" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15590,45 +15590,45 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B315" s="6" t="inlineStr">
+      <c r="A315" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B315" s="4" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="C315" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D315" s="6" t="inlineStr">
+      <c r="C315" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D315" s="4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E315" s="6" t="inlineStr">
+      <c r="E315" s="4" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F315" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G315" s="6" t="inlineStr"/>
-      <c r="H315" s="6" t="inlineStr">
+      <c r="F315" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G315" s="4" t="inlineStr"/>
+      <c r="H315" s="4" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I315" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I315" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="L6" s="5" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>76.4%</t>
+          <t>78.3%</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1831,22 +1831,22 @@
         <v>27</v>
       </c>
       <c r="O21" s="5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
-          <t>70.4%</t>
+          <t>74.1%</t>
         </is>
       </c>
       <c r="S21" s="5" t="inlineStr">
         <is>
-          <t>78.5%</t>
+          <t>78.7%</t>
         </is>
       </c>
     </row>
@@ -1913,22 +1913,22 @@
         <v>27</v>
       </c>
       <c r="O22" s="5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
-          <t>70.4%</t>
+          <t>74.1%</t>
         </is>
       </c>
       <c r="S22" s="5" t="inlineStr">
         <is>
-          <t>77.5%</t>
+          <t>77.3%</t>
         </is>
       </c>
     </row>
@@ -1995,22 +1995,22 @@
         <v>27</v>
       </c>
       <c r="O23" s="5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
-          <t>70.4%</t>
+          <t>74.1%</t>
         </is>
       </c>
       <c r="S23" s="5" t="inlineStr">
         <is>
-          <t>78.5%</t>
+          <t>77.9%</t>
         </is>
       </c>
     </row>
@@ -2077,22 +2077,22 @@
         <v>27</v>
       </c>
       <c r="O24" s="5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>70.4%</t>
         </is>
       </c>
       <c r="S24" s="5" t="inlineStr">
         <is>
-          <t>71.8%</t>
+          <t>72.0%</t>
         </is>
       </c>
     </row>
@@ -2155,22 +2155,22 @@
         <v>27</v>
       </c>
       <c r="O25" s="5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
-          <t>70.4%</t>
+          <t>74.1%</t>
         </is>
       </c>
       <c r="S25" s="5" t="inlineStr">
         <is>
-          <t>71.3%</t>
+          <t>71.5%</t>
         </is>
       </c>
     </row>
@@ -2233,22 +2233,22 @@
         <v>27</v>
       </c>
       <c r="O26" s="5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
-          <t>70.4%</t>
+          <t>74.1%</t>
         </is>
       </c>
       <c r="S26" s="5" t="inlineStr">
         <is>
-          <t>64.2%</t>
+          <t>64.7%</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -5087,7 +5087,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6387,7 +6387,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -6622,7 +6622,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7542,7 +7542,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -7918,7 +7918,7 @@
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -7965,7 +7965,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -8842,7 +8842,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
@@ -9409,45 +9409,49 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B180" s="4" t="inlineStr">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>B1D1</t>
         </is>
       </c>
-      <c r="C180" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D180" s="4" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E180" s="4" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F180" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G180" s="4" t="inlineStr"/>
-      <c r="H180" s="4" t="inlineStr">
-        <is>
-          <t>0/23</t>
-        </is>
-      </c>
-      <c r="I180" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>19/23</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -9938,7 +9942,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -10079,7 +10083,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -10220,7 +10224,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -10408,7 +10412,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -10646,45 +10650,49 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B207" s="4" t="inlineStr">
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
         <is>
           <t>B1D2</t>
         </is>
       </c>
-      <c r="C207" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D207" s="4" t="inlineStr">
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E207" s="4" t="inlineStr">
+      <c r="E207" s="2" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F207" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G207" s="4" t="inlineStr"/>
-      <c r="H207" s="4" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="I207" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
+        <is>
+          <t>22/30</t>
+        </is>
+      </c>
+      <c r="I207" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -11175,7 +11183,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -11316,7 +11324,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11457,7 +11465,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -11645,7 +11653,7 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
@@ -11883,45 +11891,49 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B234" s="4" t="inlineStr">
+      <c r="A234" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
         <is>
           <t>B1E1</t>
         </is>
       </c>
-      <c r="C234" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D234" s="4" t="inlineStr">
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E234" s="4" t="inlineStr">
+      <c r="E234" s="2" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F234" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G234" s="4" t="inlineStr"/>
-      <c r="H234" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I234" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>17/26</t>
+        </is>
+      </c>
+      <c r="I234" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -12408,7 +12420,7 @@
       </c>
       <c r="G245" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H245" s="2" t="inlineStr">
@@ -12549,7 +12561,7 @@
       </c>
       <c r="G248" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H248" s="2" t="inlineStr">
@@ -12690,7 +12702,7 @@
       </c>
       <c r="G251" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H251" s="2" t="inlineStr">
@@ -12878,7 +12890,7 @@
       </c>
       <c r="G255" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H255" s="2" t="inlineStr">
@@ -13116,45 +13128,49 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B261" s="4" t="inlineStr">
+      <c r="A261" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>B1E2</t>
         </is>
       </c>
-      <c r="C261" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D261" s="4" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D261" s="2" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E261" s="4" t="inlineStr">
+      <c r="E261" s="2" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F261" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G261" s="4" t="inlineStr"/>
-      <c r="H261" s="4" t="inlineStr">
-        <is>
-          <t>0/28</t>
-        </is>
-      </c>
-      <c r="I261" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F261" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G261" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>21/28</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -13645,7 +13661,7 @@
       </c>
       <c r="G272" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H272" s="2" t="inlineStr">
@@ -13786,7 +13802,7 @@
       </c>
       <c r="G275" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H275" s="2" t="inlineStr">
@@ -13927,7 +13943,7 @@
       </c>
       <c r="G278" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H278" s="2" t="inlineStr">
@@ -14115,7 +14131,7 @@
       </c>
       <c r="G282" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H282" s="2" t="inlineStr">
@@ -14353,45 +14369,49 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B288" s="4" t="inlineStr">
+      <c r="A288" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B288" s="2" t="inlineStr">
         <is>
           <t>B1F1</t>
         </is>
       </c>
-      <c r="C288" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D288" s="4" t="inlineStr">
+      <c r="C288" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D288" s="2" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E288" s="4" t="inlineStr">
+      <c r="E288" s="2" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F288" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G288" s="4" t="inlineStr"/>
-      <c r="H288" s="4" t="inlineStr">
-        <is>
-          <t>0/26</t>
-        </is>
-      </c>
-      <c r="I288" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F288" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G288" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H288" s="2" t="inlineStr">
+        <is>
+          <t>20/26</t>
+        </is>
+      </c>
+      <c r="I288" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>
@@ -14882,7 +14902,7 @@
       </c>
       <c r="G299" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H299" s="2" t="inlineStr">
@@ -15023,7 +15043,7 @@
       </c>
       <c r="G302" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H302" s="2" t="inlineStr">
@@ -15164,7 +15184,7 @@
       </c>
       <c r="G305" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H305" s="2" t="inlineStr">
@@ -15352,7 +15372,7 @@
       </c>
       <c r="G309" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H309" s="2" t="inlineStr">
@@ -15590,45 +15610,49 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B315" s="4" t="inlineStr">
+      <c r="A315" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B315" s="2" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="C315" s="4" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D315" s="4" t="inlineStr">
+      <c r="C315" s="2" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D315" s="2" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E315" s="4" t="inlineStr">
+      <c r="E315" s="2" t="inlineStr">
         <is>
           <t>14/01/2026</t>
         </is>
       </c>
-      <c r="F315" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G315" s="4" t="inlineStr"/>
-      <c r="H315" s="4" t="inlineStr">
-        <is>
-          <t>0/29</t>
-        </is>
-      </c>
-      <c r="I315" s="4" t="inlineStr">
-        <is>
-          <t>Not Recorded</t>
+      <c r="F315" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G315" s="2" t="inlineStr">
+        <is>
+          <t>dnasr281@gmail.com</t>
+        </is>
+      </c>
+      <c r="H315" s="2" t="inlineStr">
+        <is>
+          <t>21/29</t>
+        </is>
+      </c>
+      <c r="I315" s="2" t="inlineStr">
+        <is>
+          <t>Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -1834,10 +1834,10 @@
         <v>20</v>
       </c>
       <c r="P21" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="5" t="n">
         <v>3</v>
-      </c>
-      <c r="Q21" s="5" t="n">
-        <v>4</v>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
@@ -1916,10 +1916,10 @@
         <v>20</v>
       </c>
       <c r="P22" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="5" t="n">
         <v>3</v>
-      </c>
-      <c r="Q22" s="5" t="n">
-        <v>4</v>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
@@ -1998,10 +1998,10 @@
         <v>20</v>
       </c>
       <c r="P23" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="5" t="n">
         <v>3</v>
-      </c>
-      <c r="Q23" s="5" t="n">
-        <v>4</v>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
@@ -2080,10 +2080,10 @@
         <v>19</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q24" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
@@ -2158,10 +2158,10 @@
         <v>20</v>
       </c>
       <c r="P25" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="5" t="n">
         <v>3</v>
-      </c>
-      <c r="Q25" s="5" t="n">
-        <v>4</v>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
@@ -2236,10 +2236,10 @@
         <v>20</v>
       </c>
       <c r="P26" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="5" t="n">
         <v>3</v>
-      </c>
-      <c r="Q26" s="5" t="n">
-        <v>4</v>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
@@ -9456,45 +9456,45 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B181" s="6" t="inlineStr">
+      <c r="A181" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B181" s="4" t="inlineStr">
         <is>
           <t>B1D1</t>
         </is>
       </c>
-      <c r="C181" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D181" s="6" t="inlineStr">
+      <c r="C181" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D181" s="4" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E181" s="6" t="inlineStr">
+      <c r="E181" s="4" t="inlineStr">
         <is>
           <t>15/01/2026</t>
         </is>
       </c>
-      <c r="F181" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G181" s="6" t="inlineStr"/>
-      <c r="H181" s="6" t="inlineStr">
+      <c r="F181" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G181" s="4" t="inlineStr"/>
+      <c r="H181" s="4" t="inlineStr">
         <is>
           <t>0/23</t>
         </is>
       </c>
-      <c r="I181" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I181" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10697,45 +10697,45 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B208" s="6" t="inlineStr">
+      <c r="A208" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B208" s="4" t="inlineStr">
         <is>
           <t>B1D2</t>
         </is>
       </c>
-      <c r="C208" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D208" s="6" t="inlineStr">
+      <c r="C208" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D208" s="4" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E208" s="6" t="inlineStr">
+      <c r="E208" s="4" t="inlineStr">
         <is>
           <t>15/01/2026</t>
         </is>
       </c>
-      <c r="F208" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G208" s="6" t="inlineStr"/>
-      <c r="H208" s="6" t="inlineStr">
+      <c r="F208" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G208" s="4" t="inlineStr"/>
+      <c r="H208" s="4" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I208" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I208" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11938,45 +11938,45 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B235" s="6" t="inlineStr">
+      <c r="A235" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B235" s="4" t="inlineStr">
         <is>
           <t>B1E1</t>
         </is>
       </c>
-      <c r="C235" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D235" s="6" t="inlineStr">
+      <c r="C235" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D235" s="4" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E235" s="6" t="inlineStr">
+      <c r="E235" s="4" t="inlineStr">
         <is>
           <t>15/01/2026</t>
         </is>
       </c>
-      <c r="F235" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G235" s="6" t="inlineStr"/>
-      <c r="H235" s="6" t="inlineStr">
+      <c r="F235" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G235" s="4" t="inlineStr"/>
+      <c r="H235" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I235" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I235" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13175,45 +13175,45 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B262" s="6" t="inlineStr">
+      <c r="A262" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B262" s="4" t="inlineStr">
         <is>
           <t>B1E2</t>
         </is>
       </c>
-      <c r="C262" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D262" s="6" t="inlineStr">
+      <c r="C262" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D262" s="4" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E262" s="6" t="inlineStr">
+      <c r="E262" s="4" t="inlineStr">
         <is>
           <t>15/01/2026</t>
         </is>
       </c>
-      <c r="F262" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G262" s="6" t="inlineStr"/>
-      <c r="H262" s="6" t="inlineStr">
+      <c r="F262" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G262" s="4" t="inlineStr"/>
+      <c r="H262" s="4" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I262" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I262" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14416,45 +14416,45 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B289" s="6" t="inlineStr">
+      <c r="A289" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B289" s="4" t="inlineStr">
         <is>
           <t>B1F1</t>
         </is>
       </c>
-      <c r="C289" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D289" s="6" t="inlineStr">
+      <c r="C289" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D289" s="4" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E289" s="6" t="inlineStr">
+      <c r="E289" s="4" t="inlineStr">
         <is>
           <t>15/01/2026</t>
         </is>
       </c>
-      <c r="F289" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G289" s="6" t="inlineStr"/>
-      <c r="H289" s="6" t="inlineStr">
+      <c r="F289" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G289" s="4" t="inlineStr"/>
+      <c r="H289" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I289" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I289" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15657,45 +15657,45 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B316" s="6" t="inlineStr">
+      <c r="A316" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B316" s="4" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="C316" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D316" s="6" t="inlineStr">
+      <c r="C316" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D316" s="4" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E316" s="6" t="inlineStr">
+      <c r="E316" s="4" t="inlineStr">
         <is>
           <t>15/01/2026</t>
         </is>
       </c>
-      <c r="F316" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G316" s="6" t="inlineStr"/>
-      <c r="H316" s="6" t="inlineStr">
+      <c r="F316" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G316" s="4" t="inlineStr"/>
+      <c r="H316" s="4" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I316" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I316" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -906,7 +906,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -961,7 +961,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1346,10 +1346,10 @@
         <v>21</v>
       </c>
       <c r="P15" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="5" t="n">
         <v>2</v>
-      </c>
-      <c r="Q15" s="5" t="n">
-        <v>3</v>
       </c>
       <c r="R15" s="5" t="inlineStr">
         <is>
@@ -1428,10 +1428,10 @@
         <v>22</v>
       </c>
       <c r="P16" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R16" s="5" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1510,10 +1510,10 @@
         <v>22</v>
       </c>
       <c r="P17" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R17" s="5" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1592,10 +1592,10 @@
         <v>22</v>
       </c>
       <c r="P18" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
         <v>22</v>
       </c>
       <c r="P19" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
@@ -1756,10 +1756,10 @@
         <v>21</v>
       </c>
       <c r="P20" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="5" t="n">
         <v>2</v>
-      </c>
-      <c r="Q20" s="5" t="n">
-        <v>3</v>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
@@ -2097,45 +2097,45 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>B1A1</t>
         </is>
       </c>
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D25" s="6" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E25" s="6" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F25" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G25" s="6" t="inlineStr"/>
-      <c r="H25" s="6" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr"/>
+      <c r="H25" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I25" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K25" s="5" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -3438,45 +3438,45 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B51" s="6" t="inlineStr">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>B1A2</t>
         </is>
       </c>
-      <c r="C51" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D51" s="6" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E51" s="6" t="inlineStr">
+      <c r="E51" s="4" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F51" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G51" s="6" t="inlineStr"/>
-      <c r="H51" s="6" t="inlineStr">
+      <c r="F51" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G51" s="4" t="inlineStr"/>
+      <c r="H51" s="4" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I51" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I51" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -4644,45 +4644,45 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B77" s="6" t="inlineStr">
+      <c r="A77" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="inlineStr">
         <is>
           <t>B1B1</t>
         </is>
       </c>
-      <c r="C77" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D77" s="6" t="inlineStr">
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D77" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E77" s="6" t="inlineStr">
+      <c r="E77" s="4" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F77" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G77" s="6" t="inlineStr"/>
-      <c r="H77" s="6" t="inlineStr">
+      <c r="F77" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G77" s="4" t="inlineStr"/>
+      <c r="H77" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I77" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I77" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -5850,45 +5850,45 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B103" s="6" t="inlineStr">
+      <c r="A103" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B103" s="4" t="inlineStr">
         <is>
           <t>B1B2</t>
         </is>
       </c>
-      <c r="C103" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D103" s="6" t="inlineStr">
+      <c r="C103" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D103" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E103" s="6" t="inlineStr">
+      <c r="E103" s="4" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F103" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G103" s="6" t="inlineStr"/>
-      <c r="H103" s="6" t="inlineStr">
+      <c r="F103" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G103" s="4" t="inlineStr"/>
+      <c r="H103" s="4" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I103" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I103" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6387,7 +6387,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -6622,7 +6622,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -7056,45 +7056,45 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B129" s="6" t="inlineStr">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B129" s="4" t="inlineStr">
         <is>
           <t>B1C1</t>
         </is>
       </c>
-      <c r="C129" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D129" s="6" t="inlineStr">
+      <c r="C129" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D129" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E129" s="6" t="inlineStr">
+      <c r="E129" s="4" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F129" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G129" s="6" t="inlineStr"/>
-      <c r="H129" s="6" t="inlineStr">
+      <c r="F129" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G129" s="4" t="inlineStr"/>
+      <c r="H129" s="4" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I129" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I129" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7495,7 +7495,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7542,7 +7542,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -7918,7 +7918,7 @@
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -7965,7 +7965,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -8258,45 +8258,45 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B155" s="6" t="inlineStr">
+      <c r="A155" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B155" s="4" t="inlineStr">
         <is>
           <t>B1C2</t>
         </is>
       </c>
-      <c r="C155" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D155" s="6" t="inlineStr">
+      <c r="C155" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D155" s="4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E155" s="6" t="inlineStr">
+      <c r="E155" s="4" t="inlineStr">
         <is>
           <t>17/01/2026</t>
         </is>
       </c>
-      <c r="F155" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G155" s="6" t="inlineStr"/>
-      <c r="H155" s="6" t="inlineStr">
+      <c r="F155" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G155" s="4" t="inlineStr"/>
+      <c r="H155" s="4" t="inlineStr">
         <is>
           <t>0/23</t>
         </is>
       </c>
-      <c r="I155" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I155" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -8842,7 +8842,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
@@ -9942,7 +9942,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -10224,7 +10224,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -11183,7 +11183,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -11324,7 +11324,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11465,7 +11465,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -11653,7 +11653,7 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
@@ -12420,7 +12420,7 @@
       </c>
       <c r="G245" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H245" s="2" t="inlineStr">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="G248" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H248" s="2" t="inlineStr">
@@ -12702,7 +12702,7 @@
       </c>
       <c r="G251" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H251" s="2" t="inlineStr">
@@ -12890,7 +12890,7 @@
       </c>
       <c r="G255" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H255" s="2" t="inlineStr">
@@ -13661,7 +13661,7 @@
       </c>
       <c r="G272" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H272" s="2" t="inlineStr">
@@ -13802,7 +13802,7 @@
       </c>
       <c r="G275" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H275" s="2" t="inlineStr">
@@ -13943,7 +13943,7 @@
       </c>
       <c r="G278" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H278" s="2" t="inlineStr">
@@ -14131,7 +14131,7 @@
       </c>
       <c r="G282" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H282" s="2" t="inlineStr">
@@ -14902,7 +14902,7 @@
       </c>
       <c r="G299" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H299" s="2" t="inlineStr">
@@ -15043,7 +15043,7 @@
       </c>
       <c r="G302" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H302" s="2" t="inlineStr">
@@ -15184,7 +15184,7 @@
       </c>
       <c r="G305" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H305" s="2" t="inlineStr">
@@ -15372,7 +15372,7 @@
       </c>
       <c r="G309" s="2" t="inlineStr">
         <is>
-          <t>dnasr281@gmail.com, System</t>
+          <t>System, dnasr281@gmail.com</t>
         </is>
       </c>
       <c r="H309" s="2" t="inlineStr">

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -1346,10 +1346,10 @@
         <v>21</v>
       </c>
       <c r="P15" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R15" s="5" t="inlineStr">
         <is>
@@ -1428,10 +1428,10 @@
         <v>22</v>
       </c>
       <c r="P16" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16" s="5" t="inlineStr">
         <is>
@@ -1510,10 +1510,10 @@
         <v>22</v>
       </c>
       <c r="P17" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R17" s="5" t="inlineStr">
         <is>
@@ -1592,10 +1592,10 @@
         <v>22</v>
       </c>
       <c r="P18" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q18" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
         <v>22</v>
       </c>
       <c r="P19" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
@@ -1756,10 +1756,10 @@
         <v>21</v>
       </c>
       <c r="P20" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
@@ -2175,45 +2175,45 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B26" s="6" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>B1A1</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D26" s="6" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E26" s="6" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F26" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G26" s="6" t="inlineStr"/>
-      <c r="H26" s="6" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G26" s="4" t="inlineStr"/>
+      <c r="H26" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I26" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I26" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K26" s="5" t="inlineStr">
@@ -3481,45 +3481,45 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B52" s="6" t="inlineStr">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>B1A2</t>
         </is>
       </c>
-      <c r="C52" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D52" s="6" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E52" s="6" t="inlineStr">
+      <c r="E52" s="4" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F52" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G52" s="6" t="inlineStr"/>
-      <c r="H52" s="6" t="inlineStr">
+      <c r="F52" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G52" s="4" t="inlineStr"/>
+      <c r="H52" s="4" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I52" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I52" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -4687,45 +4687,45 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B78" s="6" t="inlineStr">
+      <c r="A78" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B78" s="4" t="inlineStr">
         <is>
           <t>B1B1</t>
         </is>
       </c>
-      <c r="C78" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D78" s="6" t="inlineStr">
+      <c r="C78" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D78" s="4" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E78" s="6" t="inlineStr">
+      <c r="E78" s="4" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F78" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G78" s="6" t="inlineStr"/>
-      <c r="H78" s="6" t="inlineStr">
+      <c r="F78" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G78" s="4" t="inlineStr"/>
+      <c r="H78" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I78" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I78" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -5893,45 +5893,45 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B104" s="6" t="inlineStr">
+      <c r="A104" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B104" s="4" t="inlineStr">
         <is>
           <t>B1B2</t>
         </is>
       </c>
-      <c r="C104" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D104" s="6" t="inlineStr">
+      <c r="C104" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D104" s="4" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E104" s="6" t="inlineStr">
+      <c r="E104" s="4" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F104" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G104" s="6" t="inlineStr"/>
-      <c r="H104" s="6" t="inlineStr">
+      <c r="F104" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G104" s="4" t="inlineStr"/>
+      <c r="H104" s="4" t="inlineStr">
         <is>
           <t>0/27</t>
         </is>
       </c>
-      <c r="I104" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I104" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -7099,45 +7099,45 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B130" s="6" t="inlineStr">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B130" s="4" t="inlineStr">
         <is>
           <t>B1C1</t>
         </is>
       </c>
-      <c r="C130" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D130" s="6" t="inlineStr">
+      <c r="C130" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D130" s="4" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E130" s="6" t="inlineStr">
+      <c r="E130" s="4" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F130" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G130" s="6" t="inlineStr"/>
-      <c r="H130" s="6" t="inlineStr">
+      <c r="F130" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G130" s="4" t="inlineStr"/>
+      <c r="H130" s="4" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I130" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I130" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -8301,45 +8301,45 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="6" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B156" s="6" t="inlineStr">
+      <c r="A156" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B156" s="4" t="inlineStr">
         <is>
           <t>B1C2</t>
         </is>
       </c>
-      <c r="C156" s="6" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D156" s="6" t="inlineStr">
+      <c r="C156" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D156" s="4" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E156" s="6" t="inlineStr">
+      <c r="E156" s="4" t="inlineStr">
         <is>
           <t>18/01/2026</t>
         </is>
       </c>
-      <c r="F156" s="6" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G156" s="6" t="inlineStr"/>
-      <c r="H156" s="6" t="inlineStr">
+      <c r="F156" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G156" s="4" t="inlineStr"/>
+      <c r="H156" s="4" t="inlineStr">
         <is>
           <t>0/23</t>
         </is>
       </c>
-      <c r="I156" s="6" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I156" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1834,10 +1834,10 @@
         <v>20</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
@@ -1916,10 +1916,10 @@
         <v>20</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q22" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
@@ -1998,10 +1998,10 @@
         <v>20</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q23" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
@@ -2080,10 +2080,10 @@
         <v>19</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q24" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
@@ -2158,10 +2158,10 @@
         <v>20</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q25" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
@@ -2236,10 +2236,10 @@
         <v>20</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q26" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
@@ -9542,45 +9542,45 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="9" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B183" s="9" t="inlineStr">
+      <c r="A183" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B183" s="4" t="inlineStr">
         <is>
           <t>B1D1</t>
         </is>
       </c>
-      <c r="C183" s="9" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D183" s="9" t="inlineStr">
+      <c r="C183" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D183" s="4" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E183" s="9" t="inlineStr">
+      <c r="E183" s="4" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F183" s="9" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G183" s="9" t="inlineStr"/>
-      <c r="H183" s="9" t="inlineStr">
+      <c r="F183" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G183" s="4" t="inlineStr"/>
+      <c r="H183" s="4" t="inlineStr">
         <is>
           <t>0/23</t>
         </is>
       </c>
-      <c r="I183" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I183" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -10783,45 +10783,45 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="9" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B210" s="9" t="inlineStr">
+      <c r="A210" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B210" s="4" t="inlineStr">
         <is>
           <t>B1D2</t>
         </is>
       </c>
-      <c r="C210" s="9" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D210" s="9" t="inlineStr">
+      <c r="C210" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D210" s="4" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E210" s="9" t="inlineStr">
+      <c r="E210" s="4" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F210" s="9" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G210" s="9" t="inlineStr"/>
-      <c r="H210" s="9" t="inlineStr">
+      <c r="F210" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G210" s="4" t="inlineStr"/>
+      <c r="H210" s="4" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I210" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I210" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -12024,45 +12024,45 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="9" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B237" s="9" t="inlineStr">
+      <c r="A237" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B237" s="4" t="inlineStr">
         <is>
           <t>B1E1</t>
         </is>
       </c>
-      <c r="C237" s="9" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D237" s="9" t="inlineStr">
+      <c r="C237" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D237" s="4" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E237" s="9" t="inlineStr">
+      <c r="E237" s="4" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F237" s="9" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G237" s="9" t="inlineStr"/>
-      <c r="H237" s="9" t="inlineStr">
+      <c r="F237" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G237" s="4" t="inlineStr"/>
+      <c r="H237" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I237" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I237" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13261,45 +13261,45 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="9" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B264" s="9" t="inlineStr">
+      <c r="A264" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B264" s="4" t="inlineStr">
         <is>
           <t>B1E2</t>
         </is>
       </c>
-      <c r="C264" s="9" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D264" s="9" t="inlineStr">
+      <c r="C264" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D264" s="4" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E264" s="9" t="inlineStr">
+      <c r="E264" s="4" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F264" s="9" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G264" s="9" t="inlineStr"/>
-      <c r="H264" s="9" t="inlineStr">
+      <c r="F264" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G264" s="4" t="inlineStr"/>
+      <c r="H264" s="4" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I264" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I264" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14502,45 +14502,45 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="9" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B291" s="9" t="inlineStr">
+      <c r="A291" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B291" s="4" t="inlineStr">
         <is>
           <t>B1F1</t>
         </is>
       </c>
-      <c r="C291" s="9" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D291" s="9" t="inlineStr">
+      <c r="C291" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D291" s="4" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E291" s="9" t="inlineStr">
+      <c r="E291" s="4" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F291" s="9" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G291" s="9" t="inlineStr"/>
-      <c r="H291" s="9" t="inlineStr">
+      <c r="F291" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G291" s="4" t="inlineStr"/>
+      <c r="H291" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I291" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I291" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -15743,45 +15743,45 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="9" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B318" s="9" t="inlineStr">
+      <c r="A318" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B318" s="4" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="C318" s="9" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D318" s="9" t="inlineStr">
+      <c r="C318" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D318" s="4" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E318" s="9" t="inlineStr">
+      <c r="E318" s="4" t="inlineStr">
         <is>
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="F318" s="9" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G318" s="9" t="inlineStr"/>
-      <c r="H318" s="9" t="inlineStr">
+      <c r="F318" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G318" s="4" t="inlineStr"/>
+      <c r="H318" s="4" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I318" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I318" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_session_analysis.xlsx
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -103,9 +103,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -870,7 +867,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -906,7 +903,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -925,7 +922,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -961,7 +958,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1018,7 +1015,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1122,7 +1119,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1221,7 +1218,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1313,7 +1310,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1477,7 +1474,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1559,7 +1556,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1834,10 +1831,10 @@
         <v>20</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
@@ -1916,10 +1913,10 @@
         <v>20</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q22" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
@@ -1965,7 +1962,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1998,10 +1995,10 @@
         <v>20</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q23" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="5" t="inlineStr">
         <is>
@@ -2080,10 +2077,10 @@
         <v>19</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q24" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="5" t="inlineStr">
         <is>
@@ -2158,10 +2155,10 @@
         <v>20</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q25" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
@@ -2236,10 +2233,10 @@
         <v>20</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q26" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="5" t="inlineStr">
         <is>
@@ -2675,7 +2672,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2722,7 +2719,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2769,7 +2766,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -2863,7 +2860,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -2957,7 +2954,7 @@
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -3004,7 +3001,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3098,7 +3095,7 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3145,7 +3142,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -3376,7 +3373,7 @@
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
@@ -3881,7 +3878,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -3928,7 +3925,7 @@
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -3975,7 +3972,7 @@
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4069,7 +4066,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -4163,7 +4160,7 @@
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -4210,7 +4207,7 @@
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -4304,7 +4301,7 @@
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -4351,7 +4348,7 @@
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -4582,7 +4579,7 @@
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
@@ -5087,7 +5084,7 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -5134,7 +5131,7 @@
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -5181,7 +5178,7 @@
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -5275,7 +5272,7 @@
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -5369,7 +5366,7 @@
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -5416,7 +5413,7 @@
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -5510,7 +5507,7 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -5557,7 +5554,7 @@
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -5788,7 +5785,7 @@
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
@@ -6293,7 +6290,7 @@
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -6340,7 +6337,7 @@
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -6387,7 +6384,7 @@
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -6481,7 +6478,7 @@
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -6575,7 +6572,7 @@
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -6622,7 +6619,7 @@
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6716,7 +6713,7 @@
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -6763,7 +6760,7 @@
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -6994,7 +6991,7 @@
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -7495,7 +7492,7 @@
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -7542,7 +7539,7 @@
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -7589,7 +7586,7 @@
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -7683,7 +7680,7 @@
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -7777,7 +7774,7 @@
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -7824,7 +7821,7 @@
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -7918,7 +7915,7 @@
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -7965,7 +7962,7 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -8196,7 +8193,7 @@
       </c>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
@@ -8701,7 +8698,7 @@
       </c>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -8842,7 +8839,7 @@
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -8983,7 +8980,7 @@
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -9171,7 +9168,7 @@
       </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
@@ -9585,45 +9582,45 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="9" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B184" s="9" t="inlineStr">
+      <c r="A184" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B184" s="4" t="inlineStr">
         <is>
           <t>B1D1</t>
         </is>
       </c>
-      <c r="C184" s="9" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D184" s="9" t="inlineStr">
+      <c r="C184" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D184" s="4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E184" s="9" t="inlineStr">
+      <c r="E184" s="4" t="inlineStr">
         <is>
           <t>22/01/2026</t>
         </is>
       </c>
-      <c r="F184" s="9" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G184" s="9" t="inlineStr"/>
-      <c r="H184" s="9" t="inlineStr">
+      <c r="F184" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G184" s="4" t="inlineStr"/>
+      <c r="H184" s="4" t="inlineStr">
         <is>
           <t>0/23</t>
         </is>
       </c>
-      <c r="I184" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I184" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -9942,7 +9939,7 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -10083,7 +10080,7 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -10224,7 +10221,7 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -10412,7 +10409,7 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -10826,45 +10823,45 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="9" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B211" s="9" t="inlineStr">
+      <c r="A211" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B211" s="4" t="inlineStr">
         <is>
           <t>B1D2</t>
         </is>
       </c>
-      <c r="C211" s="9" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D211" s="9" t="inlineStr">
+      <c r="C211" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D211" s="4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E211" s="9" t="inlineStr">
+      <c r="E211" s="4" t="inlineStr">
         <is>
           <t>22/01/2026</t>
         </is>
       </c>
-      <c r="F211" s="9" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G211" s="9" t="inlineStr"/>
-      <c r="H211" s="9" t="inlineStr">
+      <c r="F211" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G211" s="4" t="inlineStr"/>
+      <c r="H211" s="4" t="inlineStr">
         <is>
           <t>0/30</t>
         </is>
       </c>
-      <c r="I211" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I211" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -11183,7 +11180,7 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
@@ -11324,7 +11321,7 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
@@ -11465,7 +11462,7 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
@@ -11653,7 +11650,7 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
@@ -12067,45 +12064,45 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="9" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B238" s="9" t="inlineStr">
+      <c r="A238" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B238" s="4" t="inlineStr">
         <is>
           <t>B1E1</t>
         </is>
       </c>
-      <c r="C238" s="9" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D238" s="9" t="inlineStr">
+      <c r="C238" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D238" s="4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E238" s="9" t="inlineStr">
+      <c r="E238" s="4" t="inlineStr">
         <is>
           <t>22/01/2026</t>
         </is>
       </c>
-      <c r="F238" s="9" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G238" s="9" t="inlineStr"/>
-      <c r="H238" s="9" t="inlineStr">
+      <c r="F238" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G238" s="4" t="inlineStr"/>
+      <c r="H238" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I238" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I238" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -12420,7 +12417,7 @@
       </c>
       <c r="G245" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H245" s="2" t="inlineStr">
@@ -12561,7 +12558,7 @@
       </c>
       <c r="G248" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H248" s="2" t="inlineStr">
@@ -12702,7 +12699,7 @@
       </c>
       <c r="G251" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H251" s="2" t="inlineStr">
@@ -12890,7 +12887,7 @@
       </c>
       <c r="G255" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H255" s="2" t="inlineStr">
@@ -13304,45 +13301,45 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="9" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B265" s="9" t="inlineStr">
+      <c r="A265" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B265" s="4" t="inlineStr">
         <is>
           <t>B1E2</t>
         </is>
       </c>
-      <c r="C265" s="9" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D265" s="9" t="inlineStr">
+      <c r="C265" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D265" s="4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E265" s="9" t="inlineStr">
+      <c r="E265" s="4" t="inlineStr">
         <is>
           <t>22/01/2026</t>
         </is>
       </c>
-      <c r="F265" s="9" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G265" s="9" t="inlineStr"/>
-      <c r="H265" s="9" t="inlineStr">
+      <c r="F265" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G265" s="4" t="inlineStr"/>
+      <c r="H265" s="4" t="inlineStr">
         <is>
           <t>0/28</t>
         </is>
       </c>
-      <c r="I265" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I265" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -13661,7 +13658,7 @@
       </c>
       <c r="G272" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H272" s="2" t="inlineStr">
@@ -13802,7 +13799,7 @@
       </c>
       <c r="G275" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H275" s="2" t="inlineStr">
@@ -13943,7 +13940,7 @@
       </c>
       <c r="G278" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H278" s="2" t="inlineStr">
@@ -14131,7 +14128,7 @@
       </c>
       <c r="G282" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H282" s="2" t="inlineStr">
@@ -14545,45 +14542,45 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="9" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B292" s="9" t="inlineStr">
+      <c r="A292" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B292" s="4" t="inlineStr">
         <is>
           <t>B1F1</t>
         </is>
       </c>
-      <c r="C292" s="9" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D292" s="9" t="inlineStr">
+      <c r="C292" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D292" s="4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E292" s="9" t="inlineStr">
+      <c r="E292" s="4" t="inlineStr">
         <is>
           <t>22/01/2026</t>
         </is>
       </c>
-      <c r="F292" s="9" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G292" s="9" t="inlineStr"/>
-      <c r="H292" s="9" t="inlineStr">
+      <c r="F292" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G292" s="4" t="inlineStr"/>
+      <c r="H292" s="4" t="inlineStr">
         <is>
           <t>0/26</t>
         </is>
       </c>
-      <c r="I292" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I292" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
@@ -14902,7 +14899,7 @@
       </c>
       <c r="G299" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H299" s="2" t="inlineStr">
@@ -15043,7 +15040,7 @@
       </c>
       <c r="G302" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H302" s="2" t="inlineStr">
@@ -15184,7 +15181,7 @@
       </c>
       <c r="G305" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H305" s="2" t="inlineStr">
@@ -15372,7 +15369,7 @@
       </c>
       <c r="G309" s="2" t="inlineStr">
         <is>
-          <t>System, dnasr281@gmail.com</t>
+          <t>dnasr281@gmail.com, System</t>
         </is>
       </c>
       <c r="H309" s="2" t="inlineStr">
@@ -15786,45 +15783,45 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="9" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B319" s="9" t="inlineStr">
+      <c r="A319" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B319" s="4" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="C319" s="9" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="D319" s="9" t="inlineStr">
+      <c r="C319" s="4" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="D319" s="4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E319" s="9" t="inlineStr">
+      <c r="E319" s="4" t="inlineStr">
         <is>
           <t>22/01/2026</t>
         </is>
       </c>
-      <c r="F319" s="9" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G319" s="9" t="inlineStr"/>
-      <c r="H319" s="9" t="inlineStr">
+      <c r="F319" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G319" s="4" t="inlineStr"/>
+      <c r="H319" s="4" t="inlineStr">
         <is>
           <t>0/29</t>
         </is>
       </c>
-      <c r="I319" s="9" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="I319" s="4" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>
